--- a/Data/indiv_PI.xlsx
+++ b/Data/indiv_PI.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>13</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -702,7 +702,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MARÍNGUÉ</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MARÍNGUÉ</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MARÍNGUÉ</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MARÍNGUÉ</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MARÍNGUÉ</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -847,7 +847,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MARÍNGUÉ</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -878,7 +878,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MARÍNGUÉ</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MARÍNGUÉ</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -940,7 +940,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MARíNGUè</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -948,14 +948,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
       <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -966,27 +971,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MARíNGUè</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Sessao 1</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -997,27 +997,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MARíNGUè</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -1028,27 +1028,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MARíNGUè</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1067,14 +1067,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E24">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1095,17 +1100,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E25">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1121,22 +1126,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="E26">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1152,22 +1152,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E27">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1183,22 +1183,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F28">
         <v>4</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1217,14 +1217,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1245,17 +1250,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1276,17 +1281,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E31">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1297,27 +1302,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Sessao 3</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="E32">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -1328,27 +1328,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1359,27 +1359,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1398,14 +1398,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E35">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F35">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1426,17 +1431,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E36">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1452,19 +1457,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="E37">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F37">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>15</v>
@@ -1483,22 +1483,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E38">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
         <v>10</v>
-      </c>
-      <c r="G38">
-        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1514,22 +1514,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E39">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F39">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1548,14 +1548,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E40">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F40">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1576,17 +1581,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E41">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -1597,27 +1602,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1628,27 +1628,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E43">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G43">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1659,27 +1659,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E44">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G44">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1698,14 +1698,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E45">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
         <v>5</v>
-      </c>
-      <c r="G45">
-        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1726,17 +1731,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E46">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -1757,17 +1762,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E47">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1783,22 +1788,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Sessao 3</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="E48">
         <v>11</v>
       </c>
       <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
         <v>6</v>
-      </c>
-      <c r="G48">
-        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -1814,22 +1814,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E49">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1845,22 +1845,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -1879,11 +1879,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51">
         <v>6</v>
@@ -1907,17 +1912,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1938,110 +1943,105 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Sessao 3</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
         <v>4</v>
-      </c>
-      <c r="G54">
-        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2060,14 +2060,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E57">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -2088,17 +2093,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2119,17 +2124,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2145,22 +2150,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Sessao 3</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="E60">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -2176,22 +2176,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -2207,22 +2207,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2241,14 +2241,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E63">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -2269,17 +2274,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
         <v>8</v>
-      </c>
-      <c r="G64">
-        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2290,27 +2295,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -2321,27 +2321,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
         <v>9</v>
-      </c>
-      <c r="G66">
-        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -2352,27 +2352,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E67">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -2391,11 +2391,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -2419,17 +2424,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -2445,22 +2450,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="E70">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2476,22 +2476,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <v>3</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2507,22 +2507,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
         <v>4</v>
-      </c>
-      <c r="G72">
-        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -2541,11 +2541,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -2569,17 +2574,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F74">
         <v>3</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -2590,27 +2595,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -2621,27 +2621,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -2652,27 +2652,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G77">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -2683,22 +2683,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MAROCANE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -2709,27 +2714,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MAROCANE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -2740,7 +2745,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MAROCANE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2748,19 +2753,14 @@
           <t>MASCULINO</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
-        </is>
-      </c>
       <c r="E80">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MAROCANE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2781,17 +2781,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MAROCANE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2812,17 +2812,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -2838,17 +2838,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F83">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -2864,22 +2869,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E84">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -2895,22 +2900,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E85">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2921,7 +2926,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2929,19 +2934,14 @@
           <t>FEMININO</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Sessao 3</t>
-        </is>
-      </c>
       <c r="E86">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F86">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G86">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2962,17 +2962,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
@@ -2983,22 +2983,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E88">
+        <v>26</v>
+      </c>
+      <c r="F88">
         <v>11</v>
       </c>
-      <c r="F88">
-        <v>4</v>
-      </c>
       <c r="G88">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -3009,27 +3014,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E89">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G89">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -3040,27 +3045,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E90">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -3071,7 +3076,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3079,19 +3084,14 @@
           <t>MASCULINO</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Sessao 3</t>
-        </is>
-      </c>
       <c r="E91">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3112,17 +3112,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3143,17 +3143,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -3169,17 +3169,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E94">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F94">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -3195,264 +3200,21 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E95">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
-        </is>
-      </c>
-      <c r="E96">
-        <v>26</v>
-      </c>
-      <c r="F96">
-        <v>12</v>
-      </c>
-      <c r="G96">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Sessao 3</t>
-        </is>
-      </c>
-      <c r="E97">
-        <v>18</v>
-      </c>
-      <c r="F97">
-        <v>8</v>
-      </c>
-      <c r="G97">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Sessao 4</t>
-        </is>
-      </c>
-      <c r="E98">
-        <v>12</v>
-      </c>
-      <c r="F98">
-        <v>6</v>
-      </c>
-      <c r="G98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="E99">
-        <v>7</v>
-      </c>
-      <c r="F99">
-        <v>4</v>
-      </c>
-      <c r="G99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Sessao 1</t>
-        </is>
-      </c>
-      <c r="E100">
-        <v>20</v>
-      </c>
-      <c r="F100">
-        <v>9</v>
-      </c>
-      <c r="G100">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
-        </is>
-      </c>
-      <c r="E101">
-        <v>22</v>
-      </c>
-      <c r="F101">
-        <v>11</v>
-      </c>
-      <c r="G101">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Sessao 3</t>
-        </is>
-      </c>
-      <c r="E102">
-        <v>17</v>
-      </c>
-      <c r="F102">
-        <v>10</v>
-      </c>
-      <c r="G102">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Sessao 4</t>
-        </is>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
         <v>0</v>
       </c>
     </row>

--- a/Data/indiv_PI.xlsx
+++ b/Data/indiv_PI.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,14 +410,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
       <c r="E2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -438,17 +443,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -469,17 +474,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>13</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -500,17 +505,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -526,22 +531,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -560,14 +565,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
       <c r="E7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -588,17 +598,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -619,17 +629,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -640,27 +650,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CARAPIRA</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Sessao 3</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -671,27 +676,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CARAPIRA</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -710,14 +715,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
       <c r="E12">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -738,17 +748,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E13">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -764,22 +774,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="E14">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -795,22 +800,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -829,14 +834,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
       <c r="E16">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -857,17 +867,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -878,27 +888,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="E18">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -909,27 +914,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -940,27 +945,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -979,14 +984,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E21">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1007,17 +1017,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1033,22 +1043,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="E23">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1064,22 +1069,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E24">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1095,22 +1100,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1129,14 +1134,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1147,12 +1157,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1161,13 +1171,13 @@
         </is>
       </c>
       <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
         <v>12</v>
       </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
       <c r="G27">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1178,12 +1188,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1192,13 +1202,13 @@
         </is>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1209,27 +1219,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1240,7 +1250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1250,17 +1260,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1271,7 +1281,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1281,17 +1291,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1307,17 +1317,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E32">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1328,7 +1343,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1336,19 +1351,14 @@
           <t>FEMININO</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Sessao 1</t>
-        </is>
-      </c>
       <c r="E33">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1359,7 +1369,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1369,17 +1379,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G34">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1390,7 +1400,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1400,17 +1410,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E35">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1421,7 +1431,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1431,17 +1441,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E36">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1452,22 +1462,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E37">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1478,7 +1493,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1486,19 +1501,14 @@
           <t>MASCULINO</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Sessao 1</t>
-        </is>
-      </c>
       <c r="E38">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1509,7 +1519,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1519,17 +1529,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G39">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1540,7 +1550,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1550,14 +1560,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E40">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G40">
         <v>11</v>
@@ -1571,7 +1581,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1581,17 +1591,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E41">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="G41">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1607,28 +1617,33 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E42">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1636,30 +1651,25 @@
           <t>FEMININO</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Sessao 1</t>
-        </is>
-      </c>
       <c r="E43">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F43">
+        <v>16</v>
+      </c>
+      <c r="G43">
         <v>9</v>
-      </c>
-      <c r="G43">
-        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1669,28 +1679,28 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E44">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G44">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1700,28 +1710,28 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E45">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1731,14 +1741,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E46">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G46">
         <v>9</v>
@@ -1747,12 +1757,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1762,28 +1772,28 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1792,24 +1802,24 @@
         </is>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1823,24 +1833,24 @@
         </is>
       </c>
       <c r="E49">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1854,24 +1864,24 @@
         </is>
       </c>
       <c r="E50">
+        <v>28</v>
+      </c>
+      <c r="F50">
         <v>20</v>
       </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
       <c r="G50">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1885,24 +1895,24 @@
         </is>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1919,41 +1929,36 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MONAPO</t>
+          <t>RIBAUE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Sessao 5</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -1964,7 +1969,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1972,14 +1977,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
       <c r="E54">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
@@ -1990,7 +2000,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2000,17 +2010,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2031,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2031,17 +2041,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E56">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -2052,7 +2062,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2062,17 +2072,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2083,27 +2093,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Sessao 4</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -2114,27 +2119,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -2145,7 +2150,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2153,14 +2158,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
       <c r="E60">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60">
         <v>10</v>
-      </c>
-      <c r="G60">
-        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -2171,7 +2181,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2181,17 +2191,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F61">
         <v>8</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -2202,7 +2212,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>CUNLE SEDE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2212,17 +2222,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
         <v>6</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2233,27 +2243,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E63">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G63">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -2264,27 +2274,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E64">
+        <v>17</v>
+      </c>
+      <c r="F64">
         <v>10</v>
       </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
       <c r="G64">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -2295,7 +2305,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2303,14 +2313,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E65">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -2321,7 +2336,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2331,17 +2346,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E66">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2352,7 +2367,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2362,17 +2377,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E67">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2383,27 +2398,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -2414,27 +2429,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -2445,7 +2460,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2453,14 +2468,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E70">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -2471,7 +2491,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2481,17 +2501,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2502,7 +2522,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2512,17 +2532,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>2</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2533,7 +2553,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>MARROCANE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2543,14 +2563,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -2564,27 +2584,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E74">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G74">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -2595,7 +2615,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2603,14 +2623,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
       <c r="E75">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -2621,7 +2646,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2631,17 +2656,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E76">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F76">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -2652,7 +2677,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2662,17 +2687,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E77">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -2683,7 +2708,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2693,17 +2718,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E78">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G78">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2714,7 +2739,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2724,17 +2749,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="F79">
         <v>7</v>
       </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
       <c r="G79">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2745,7 +2770,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2753,14 +2778,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
       <c r="E80">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G80">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -2771,7 +2801,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2781,17 +2811,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E81">
+        <v>23</v>
+      </c>
+      <c r="F81">
         <v>12</v>
       </c>
-      <c r="F81">
-        <v>5</v>
-      </c>
       <c r="G81">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
@@ -2802,7 +2832,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2812,17 +2842,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E82">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G82">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -2833,7 +2863,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2843,17 +2873,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E83">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G83">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -2864,7 +2894,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2874,17 +2904,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2895,7 +2925,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>NACHILAPA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2905,317 +2935,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G85">
         <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="E86">
-        <v>23</v>
-      </c>
-      <c r="F86">
-        <v>20</v>
-      </c>
-      <c r="G86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Sessao 1</t>
-        </is>
-      </c>
-      <c r="E87">
-        <v>27</v>
-      </c>
-      <c r="F87">
-        <v>10</v>
-      </c>
-      <c r="G87">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
-        </is>
-      </c>
-      <c r="E88">
-        <v>26</v>
-      </c>
-      <c r="F88">
-        <v>11</v>
-      </c>
-      <c r="G88">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Sessao 3</t>
-        </is>
-      </c>
-      <c r="E89">
-        <v>17</v>
-      </c>
-      <c r="F89">
-        <v>9</v>
-      </c>
-      <c r="G89">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Sessao 4</t>
-        </is>
-      </c>
-      <c r="E90">
-        <v>8</v>
-      </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
-      <c r="G90">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="E91">
-        <v>7</v>
-      </c>
-      <c r="F91">
-        <v>4</v>
-      </c>
-      <c r="G91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Sessao 1</t>
-        </is>
-      </c>
-      <c r="E92">
-        <v>20</v>
-      </c>
-      <c r="F92">
-        <v>9</v>
-      </c>
-      <c r="G92">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
-        </is>
-      </c>
-      <c r="E93">
-        <v>20</v>
-      </c>
-      <c r="F93">
-        <v>9</v>
-      </c>
-      <c r="G93">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Sessao 3</t>
-        </is>
-      </c>
-      <c r="E94">
-        <v>19</v>
-      </c>
-      <c r="F94">
-        <v>11</v>
-      </c>
-      <c r="G94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>RIBAUE</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>NACHILAPA</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Sessao 4</t>
-        </is>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/indiv_PI.xlsx
+++ b/Data/indiv_PI.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,10 +416,10 @@
         </is>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -447,13 +447,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>13</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -531,22 +531,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E6">
         <v>16</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -562,22 +562,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -598,17 +598,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -629,17 +629,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -650,22 +650,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>CARAPIRA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E10">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
         <v>9</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -676,27 +681,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>CARAPIRA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E11">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -707,27 +712,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>CARAPIRA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -738,27 +743,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>CARAPIRA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -774,17 +779,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -800,22 +810,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E15">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -831,22 +841,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -862,7 +872,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -871,13 +881,13 @@
         </is>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -888,7 +898,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -896,14 +906,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
       <c r="E18">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -914,7 +929,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -924,17 +939,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -945,27 +960,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E20">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -976,24 +991,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E21">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -1007,27 +1022,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1038,7 +1053,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1046,14 +1061,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
       <c r="E23">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1064,7 +1084,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1074,14 +1094,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>7</v>
@@ -1100,22 +1120,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="E25">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1131,22 +1146,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -1157,7 +1172,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1167,17 +1182,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E27">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
@@ -1188,7 +1203,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1198,17 +1213,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E28">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1219,7 +1234,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1233,13 +1248,13 @@
         </is>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -1250,27 +1265,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E30">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F30">
         <v>7</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1281,7 +1296,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1289,19 +1304,14 @@
           <t>MASCULINO</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
-        </is>
-      </c>
       <c r="E31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1312,7 +1322,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1322,17 +1332,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1343,22 +1353,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1369,27 +1384,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E34">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1400,27 +1415,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E35">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G35">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1431,27 +1446,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1462,27 +1477,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1493,22 +1508,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1519,12 +1534,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1533,13 +1548,13 @@
         </is>
       </c>
       <c r="E39">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G39">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1550,12 +1565,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1564,13 +1579,13 @@
         </is>
       </c>
       <c r="E40">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F40">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G40">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
@@ -1581,12 +1596,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1595,13 +1610,13 @@
         </is>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -1612,12 +1627,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1626,24 +1641,24 @@
         </is>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1651,25 +1666,30 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
       <c r="E43">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1679,76 +1699,71 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E44">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F44">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G44">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FEMININO</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Sessao 2</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="E45">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F46">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G46">
         <v>9</v>
@@ -1757,43 +1772,43 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1801,25 +1816,30 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E48">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F48">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1829,28 +1849,28 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E49">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F49">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1860,28 +1880,28 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E50">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1891,28 +1911,28 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F51">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1922,28 +1942,28 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1951,25 +1971,30 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
       <c r="E53">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1979,28 +2004,28 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E54">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G54">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2010,28 +2035,28 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E55">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2041,28 +2066,28 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E56">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G56">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2072,28 +2097,28 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2101,25 +2126,30 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
       <c r="E58">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2129,28 +2159,28 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E59">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F59">
+        <v>9</v>
+      </c>
+      <c r="G59">
         <v>11</v>
-      </c>
-      <c r="G59">
-        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2160,28 +2190,28 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E60">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2191,28 +2221,28 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2222,14 +2252,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E62">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G62">
         <v>6</v>
@@ -2243,7 +2273,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2257,13 +2287,13 @@
         </is>
       </c>
       <c r="E63">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F63">
         <v>12</v>
       </c>
       <c r="G63">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -2274,7 +2304,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2288,13 +2318,13 @@
         </is>
       </c>
       <c r="E64">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G64">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -2305,7 +2335,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2319,13 +2349,13 @@
         </is>
       </c>
       <c r="E65">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F65">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -2336,7 +2366,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2346,17 +2376,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -2367,7 +2397,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2377,17 +2407,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -2398,27 +2428,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E68">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G68">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -2429,7 +2459,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2439,17 +2469,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G69">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -2460,7 +2490,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2470,17 +2500,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E70">
+        <v>23</v>
+      </c>
+      <c r="F70">
         <v>19</v>
       </c>
-      <c r="F70">
-        <v>8</v>
-      </c>
       <c r="G70">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -2491,7 +2521,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2501,17 +2531,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -2522,7 +2552,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2532,17 +2562,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -2553,7 +2583,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2563,17 +2593,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -2584,27 +2614,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E74">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F74">
         <v>16</v>
       </c>
       <c r="G74">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -2615,7 +2645,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2625,17 +2655,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E75">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -2646,7 +2676,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2656,17 +2686,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E76">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F76">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G76">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -2677,7 +2707,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2687,17 +2717,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E77">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F77">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G77">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2708,7 +2738,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2718,17 +2748,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -2739,7 +2769,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2749,17 +2779,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E79">
         <v>8</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -2770,27 +2800,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E80">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G80">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -2801,7 +2831,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2811,17 +2841,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E81">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G81">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -2832,7 +2862,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2842,17 +2872,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E82">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F82">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G82">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -2863,7 +2893,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2873,17 +2903,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F83">
         <v>10</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -2894,7 +2924,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2904,17 +2934,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -2925,27 +2955,1918 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>25 DE JUNHO</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E85">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>25 DE JUNHO</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E86">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E87">
+        <v>37</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E88">
+        <v>36</v>
+      </c>
+      <c r="F88">
+        <v>12</v>
+      </c>
+      <c r="G88">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E89">
+        <v>33</v>
+      </c>
+      <c r="F89">
+        <v>17</v>
+      </c>
+      <c r="G89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E90">
+        <v>34</v>
+      </c>
+      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="G90">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E91">
+        <v>38</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E92">
+        <v>35</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E93">
+        <v>32</v>
+      </c>
+      <c r="F93">
+        <v>13</v>
+      </c>
+      <c r="G93">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E94">
+        <v>33</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+      <c r="G95">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E96">
+        <v>33</v>
+      </c>
+      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="G96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E97">
+        <v>33</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CUNLE SEDE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E98">
+        <v>33</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E99">
+        <v>15</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E101">
+        <v>13</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E102">
+        <v>16</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E103">
+        <v>16</v>
+      </c>
+      <c r="F103">
+        <v>7</v>
+      </c>
+      <c r="G103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E104">
+        <v>14</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E105">
+        <v>15</v>
+      </c>
+      <c r="F105">
+        <v>7</v>
+      </c>
+      <c r="G105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E106">
+        <v>13</v>
+      </c>
+      <c r="F106">
+        <v>7</v>
+      </c>
+      <c r="G106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E107">
+        <v>15</v>
+      </c>
+      <c r="F107">
+        <v>7</v>
+      </c>
+      <c r="G107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E108">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E109">
+        <v>13</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E110">
+        <v>11</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>15</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E112">
+        <v>24</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E113">
+        <v>19</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E114">
+        <v>20</v>
+      </c>
+      <c r="F114">
+        <v>11</v>
+      </c>
+      <c r="G114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E116">
+        <v>20</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E117">
+        <v>19</v>
+      </c>
+      <c r="F117">
+        <v>8</v>
+      </c>
+      <c r="G117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E118">
+        <v>22</v>
+      </c>
+      <c r="F118">
+        <v>9</v>
+      </c>
+      <c r="G118">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E119">
+        <v>22</v>
+      </c>
+      <c r="F119">
+        <v>7</v>
+      </c>
+      <c r="G119">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E120">
+        <v>23</v>
+      </c>
+      <c r="F120">
+        <v>11</v>
+      </c>
+      <c r="G120">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E121">
+        <v>23</v>
+      </c>
+      <c r="F121">
+        <v>8</v>
+      </c>
+      <c r="G121">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E122">
+        <v>17</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
           <t>NACHILAPA</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E123">
+        <v>45</v>
+      </c>
+      <c r="F123">
+        <v>20</v>
+      </c>
+      <c r="G123">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E124">
+        <v>47</v>
+      </c>
+      <c r="F124">
+        <v>20</v>
+      </c>
+      <c r="G124">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E125">
+        <v>44</v>
+      </c>
+      <c r="F125">
+        <v>17</v>
+      </c>
+      <c r="G125">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E126">
+        <v>44</v>
+      </c>
+      <c r="F126">
+        <v>20</v>
+      </c>
+      <c r="G126">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E127">
+        <v>44</v>
+      </c>
+      <c r="F127">
+        <v>19</v>
+      </c>
+      <c r="G127">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>Sessao 6</t>
         </is>
       </c>
-      <c r="E85">
+      <c r="E128">
+        <v>44</v>
+      </c>
+      <c r="F128">
+        <v>20</v>
+      </c>
+      <c r="G128">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E129">
+        <v>28</v>
+      </c>
+      <c r="F129">
+        <v>15</v>
+      </c>
+      <c r="G129">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E130">
+        <v>29</v>
+      </c>
+      <c r="F130">
+        <v>14</v>
+      </c>
+      <c r="G130">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E131">
+        <v>33</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E132">
+        <v>27</v>
+      </c>
+      <c r="F132">
+        <v>18</v>
+      </c>
+      <c r="G132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E133">
+        <v>30</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E134">
+        <v>31</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E136">
+        <v>6</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
         <v>5</v>
       </c>
-      <c r="F85">
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E139">
         <v>4</v>
       </c>
-      <c r="G85">
-        <v>1</v>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E140">
+        <v>8</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E141">
+        <v>7</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E142">
+        <v>12</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E143">
+        <v>12</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E144">
+        <v>11</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E145">
+        <v>13</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+      <c r="G145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E146">
+        <v>18</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data/indiv_PI.xlsx
+++ b/Data/indiv_PI.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -447,13 +447,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -593,22 +593,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E8">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
         <v>18</v>
-      </c>
-      <c r="F8">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -624,22 +624,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -655,22 +655,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -691,17 +691,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -722,17 +722,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -753,17 +753,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E13">
+        <v>28</v>
+      </c>
+      <c r="F13">
         <v>13</v>
       </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
       <c r="G13">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -774,27 +774,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>CARAPIRA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E14">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -805,27 +805,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>CARAPIRA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E15">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -836,27 +836,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>CARAPIRA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -867,27 +867,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>CARAPIRA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E17">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -898,27 +898,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>CARAPIRA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -929,27 +929,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MARINGUE</t>
+          <t>CARAPIRA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -965,7 +965,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="E20">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -996,7 +996,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="E21">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F21">
         <v>11</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="E23">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1123,14 +1123,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
       <c r="E25">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1141,7 +1146,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1151,17 +1156,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E26">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1172,7 +1177,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1182,17 +1187,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E27">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1203,7 +1208,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1213,17 +1218,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E28">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1234,27 +1239,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E29">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F29">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1265,27 +1270,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -1296,7 +1301,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1304,14 +1309,19 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
       <c r="E31">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1322,7 +1332,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1332,17 +1342,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -1353,7 +1363,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1363,17 +1373,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E33">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
       <c r="G33">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1384,7 +1394,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1394,17 +1404,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1415,7 +1425,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1425,17 +1435,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1446,7 +1456,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1456,17 +1466,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1477,7 +1487,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NACOLOLO</t>
+          <t>MARINGUE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1487,17 +1497,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sessao 7</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1508,7 +1518,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1516,14 +1526,19 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
       <c r="E38">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F38">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G38">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -1534,7 +1549,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1544,17 +1559,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E39">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1565,7 +1580,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1575,17 +1590,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E40">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F40">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G40">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1596,7 +1611,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1606,17 +1621,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E41">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G41">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -1627,7 +1642,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1637,17 +1652,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E42">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F42">
+        <v>13</v>
+      </c>
+      <c r="G42">
         <v>15</v>
-      </c>
-      <c r="G42">
-        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1658,7 +1673,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1668,17 +1683,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -1689,7 +1704,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1703,13 +1718,13 @@
         </is>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1720,22 +1735,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E45">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -1746,27 +1766,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -1777,7 +1797,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1787,17 +1807,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G47">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -1808,7 +1828,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1818,17 +1838,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E48">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -1839,7 +1859,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1849,17 +1869,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E49">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G49">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -1870,7 +1890,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1880,17 +1900,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -1901,7 +1921,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1911,17 +1931,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sessao 7</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E51">
+        <v>21</v>
+      </c>
+      <c r="F51">
         <v>7</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
       <c r="G51">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -1932,7 +1952,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NAPALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1942,17 +1962,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sessao 8</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1963,27 +1983,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E53">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -1994,27 +2014,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E54">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -2025,27 +2045,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>MISEREPANE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E55">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -2056,7 +2076,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2066,17 +2086,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E56">
+        <v>38</v>
+      </c>
+      <c r="F56">
+        <v>14</v>
+      </c>
+      <c r="G56">
         <v>23</v>
-      </c>
-      <c r="F56">
-        <v>8</v>
-      </c>
-      <c r="G56">
-        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -2087,7 +2107,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2097,17 +2117,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -2118,27 +2138,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E58">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -2149,27 +2169,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E59">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G59">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
@@ -2180,27 +2200,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E60">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -2211,27 +2231,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G61">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -2242,38 +2262,38 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TAPALALA</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E62">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2283,28 +2303,28 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E63">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2314,152 +2334,152 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E64">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F64">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G64">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E65">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F65">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E66">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E67">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E68">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F68">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2469,14 +2489,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E69">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F69">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G69">
         <v>6</v>
@@ -2485,12 +2505,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2500,28 +2520,28 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E70">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2531,28 +2551,28 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E71">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G71">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2562,28 +2582,28 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E72">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G72">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NACOLOLO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2593,59 +2613,59 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E73">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F73">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G73">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1º DE MAIO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E74">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F74">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2655,28 +2675,28 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2686,28 +2706,28 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E76">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2717,28 +2737,28 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2748,28 +2768,28 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E78">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2779,28 +2799,28 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2810,90 +2830,90 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E81">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F81">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2903,28 +2923,28 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2934,28 +2954,28 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E84">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F84">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2965,28 +2985,28 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E85">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>25 DE JUNHO</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2996,183 +3016,183 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E86">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F86">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E87">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F87">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G87">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E88">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F88">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G88">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E89">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
         <v>17</v>
-      </c>
-      <c r="G89">
-        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E90">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F90">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G90">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>NAPALA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E91">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F91">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G91">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3182,214 +3202,214 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E92">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F92">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G92">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E93">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F93">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G93">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E94">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
         <v>12</v>
-      </c>
-      <c r="G94">
-        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E95">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G95">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E96">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F96">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G96">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E97">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F97">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CUNLE SEDE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E98">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F98">
+        <v>7</v>
+      </c>
+      <c r="G98">
         <v>10</v>
-      </c>
-      <c r="G98">
-        <v>23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3399,28 +3419,28 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E99">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3430,138 +3450,138 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E101">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F101">
         <v>5</v>
       </c>
       <c r="G101">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E102">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G102">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E103">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103">
         <v>7</v>
-      </c>
-      <c r="G103">
-        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E104">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F104">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G104">
         <v>9</v>
@@ -3570,12 +3590,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3585,28 +3605,28 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E105">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F105">
+        <v>6</v>
+      </c>
+      <c r="G105">
         <v>7</v>
-      </c>
-      <c r="G105">
-        <v>8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3616,28 +3636,28 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E106">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G106">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3647,28 +3667,28 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E107">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G107">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3678,28 +3698,28 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E108">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F108">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G108">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RIBAUE</t>
+          <t>MONAPO</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>TAPALALA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3709,14 +3729,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E109">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G109">
         <v>9</v>
@@ -3730,27 +3750,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E110">
+        <v>24</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110">
         <v>11</v>
-      </c>
-      <c r="F110">
-        <v>5</v>
-      </c>
-      <c r="G110">
-        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -3761,7 +3781,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3771,17 +3791,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E111">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G111">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
@@ -3792,7 +3812,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3802,14 +3822,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E112">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F112">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G112">
         <v>10</v>
@@ -3823,7 +3843,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3833,17 +3853,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E113">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F113">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G113">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -3854,7 +3874,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3864,17 +3884,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E114">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F114">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G114">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
@@ -3885,7 +3905,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3895,17 +3915,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E115">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F115">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G115">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -3916,7 +3936,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3926,17 +3946,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E116">
         <v>20</v>
       </c>
       <c r="F116">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G116">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -3947,27 +3967,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E117">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G117">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
@@ -3978,27 +3998,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E118">
         <v>22</v>
       </c>
       <c r="F118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G118">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
@@ -4009,7 +4029,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4019,17 +4039,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E119">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G119">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
@@ -4040,7 +4060,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4050,17 +4070,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E120">
         <v>23</v>
       </c>
       <c r="F120">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G120">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -4071,7 +4091,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4081,17 +4101,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E121">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F121">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G121">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -4102,7 +4122,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MARROCANE</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4112,17 +4132,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E122">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F122">
+        <v>18</v>
+      </c>
+      <c r="G122">
         <v>5</v>
-      </c>
-      <c r="G122">
-        <v>12</v>
       </c>
     </row>
     <row r="123">
@@ -4133,27 +4153,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E123">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F123">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G123">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -4164,27 +4184,27 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E124">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F124">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G124">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -4195,27 +4215,27 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E125">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F125">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G125">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
@@ -4226,27 +4246,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E126">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F126">
         <v>20</v>
       </c>
       <c r="G126">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
@@ -4257,27 +4277,27 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>1º DE MAIO</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E127">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F127">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G127">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -4288,7 +4308,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4298,17 +4318,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E128">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F128">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G128">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -4319,27 +4339,27 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E129">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F129">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G129">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -4350,27 +4370,27 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E130">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F130">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G130">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -4381,27 +4401,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E131">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F131">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G131">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -4412,27 +4432,27 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E132">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F132">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G132">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -4443,27 +4463,27 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E133">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F133">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G133">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -4474,27 +4494,27 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NACHILAPA</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MASCULINO</t>
+          <t>FEMININO</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E134">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F134">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G134">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -4505,7 +4525,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NANHOTO</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4515,14 +4535,14 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -4536,7 +4556,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NANHOTO</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4546,17 +4566,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136">
         <v>2</v>
-      </c>
-      <c r="G136">
-        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -4567,27 +4587,27 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NANHOTO</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 1</t>
         </is>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -4598,27 +4618,27 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NANHOTO</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 2</t>
         </is>
       </c>
       <c r="E138">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G138">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -4629,27 +4649,27 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NANHOTO</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 3</t>
         </is>
       </c>
       <c r="E139">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G139">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
@@ -4660,27 +4680,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NANHOTO</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>FEMININO</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Sessao 6</t>
+          <t>Sessao 4</t>
         </is>
       </c>
       <c r="E140">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G140">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -4691,7 +4711,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NANHOTO</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4701,17 +4721,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Sessao 1</t>
+          <t>Sessao 5</t>
         </is>
       </c>
       <c r="E141">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G141">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -4722,7 +4742,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NANHOTO</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4732,17 +4752,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Sessao 2</t>
+          <t>Sessao 6</t>
         </is>
       </c>
       <c r="E142">
         <v>12</v>
       </c>
       <c r="F142">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G142">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -4753,7 +4773,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NANHOTO</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4763,17 +4783,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Sessao 3</t>
+          <t>Sessao 7</t>
         </is>
       </c>
       <c r="E143">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G143">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -4784,7 +4804,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NANHOTO</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4794,17 +4814,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Sessao 4</t>
+          <t>Sessao 8</t>
         </is>
       </c>
       <c r="E144">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144">
+        <v>9</v>
+      </c>
+      <c r="G144">
         <v>3</v>
-      </c>
-      <c r="G144">
-        <v>8</v>
       </c>
     </row>
     <row r="145">
@@ -4815,7 +4835,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NANHOTO</t>
+          <t>25 DE JUNHO</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4825,17 +4845,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Sessao 5</t>
+          <t>Sessao 9</t>
         </is>
       </c>
       <c r="E145">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F145">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G145">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -4846,27 +4866,2786 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E146">
+        <v>27</v>
+      </c>
+      <c r="F146">
+        <v>7</v>
+      </c>
+      <c r="G146">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E147">
+        <v>34</v>
+      </c>
+      <c r="F147">
+        <v>13</v>
+      </c>
+      <c r="G147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E148">
+        <v>27</v>
+      </c>
+      <c r="F148">
+        <v>13</v>
+      </c>
+      <c r="G148">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E149">
+        <v>31</v>
+      </c>
+      <c r="F149">
+        <v>11</v>
+      </c>
+      <c r="G149">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E150">
+        <v>29</v>
+      </c>
+      <c r="F150">
+        <v>11</v>
+      </c>
+      <c r="G150">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E151">
+        <v>33</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Sessao 7</t>
+        </is>
+      </c>
+      <c r="E152">
+        <v>35</v>
+      </c>
+      <c r="F152">
+        <v>14</v>
+      </c>
+      <c r="G152">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Sessao 8</t>
+        </is>
+      </c>
+      <c r="E153">
+        <v>36</v>
+      </c>
+      <c r="F153">
+        <v>11</v>
+      </c>
+      <c r="G153">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Sessao 9</t>
+        </is>
+      </c>
+      <c r="E154">
+        <v>32</v>
+      </c>
+      <c r="F154">
+        <v>10</v>
+      </c>
+      <c r="G154">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E155">
+        <v>31</v>
+      </c>
+      <c r="F155">
+        <v>11</v>
+      </c>
+      <c r="G155">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E156">
+        <v>22</v>
+      </c>
+      <c r="F156">
+        <v>10</v>
+      </c>
+      <c r="G156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E157">
+        <v>25</v>
+      </c>
+      <c r="F157">
+        <v>9</v>
+      </c>
+      <c r="G157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E158">
+        <v>26</v>
+      </c>
+      <c r="F158">
+        <v>12</v>
+      </c>
+      <c r="G158">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E159">
+        <v>34</v>
+      </c>
+      <c r="F159">
+        <v>12</v>
+      </c>
+      <c r="G159">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E160">
+        <v>20</v>
+      </c>
+      <c r="F160">
+        <v>8</v>
+      </c>
+      <c r="G160">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Sessao 7</t>
+        </is>
+      </c>
+      <c r="E161">
+        <v>29</v>
+      </c>
+      <c r="F161">
+        <v>9</v>
+      </c>
+      <c r="G161">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Sessao 8</t>
+        </is>
+      </c>
+      <c r="E162">
+        <v>26</v>
+      </c>
+      <c r="F162">
+        <v>6</v>
+      </c>
+      <c r="G162">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CUNLE</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Sessao 9</t>
+        </is>
+      </c>
+      <c r="E163">
+        <v>31</v>
+      </c>
+      <c r="F163">
+        <v>10</v>
+      </c>
+      <c r="G163">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E164">
+        <v>19</v>
+      </c>
+      <c r="F164">
+        <v>7</v>
+      </c>
+      <c r="G164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E165">
+        <v>22</v>
+      </c>
+      <c r="F165">
+        <v>7</v>
+      </c>
+      <c r="G165">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>20</v>
+      </c>
+      <c r="F166">
+        <v>9</v>
+      </c>
+      <c r="G166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E167">
+        <v>21</v>
+      </c>
+      <c r="F167">
+        <v>8</v>
+      </c>
+      <c r="G167">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E168">
+        <v>17</v>
+      </c>
+      <c r="F168">
+        <v>7</v>
+      </c>
+      <c r="G168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E169">
+        <v>16</v>
+      </c>
+      <c r="F169">
+        <v>5</v>
+      </c>
+      <c r="G169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Sessao 7</t>
+        </is>
+      </c>
+      <c r="E170">
+        <v>20</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Sessao 8</t>
+        </is>
+      </c>
+      <c r="E171">
+        <v>15</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Sessao 9</t>
+        </is>
+      </c>
+      <c r="E172">
+        <v>21</v>
+      </c>
+      <c r="F172">
+        <v>9</v>
+      </c>
+      <c r="G172">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E173">
+        <v>15</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E174">
+        <v>19</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E175">
+        <v>16</v>
+      </c>
+      <c r="F175">
+        <v>8</v>
+      </c>
+      <c r="G175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E176">
+        <v>19</v>
+      </c>
+      <c r="F176">
+        <v>7</v>
+      </c>
+      <c r="G176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E177">
+        <v>17</v>
+      </c>
+      <c r="F177">
+        <v>7</v>
+      </c>
+      <c r="G177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E178">
+        <v>18</v>
+      </c>
+      <c r="F178">
+        <v>9</v>
+      </c>
+      <c r="G178">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Sessao 7</t>
+        </is>
+      </c>
+      <c r="E179">
+        <v>20</v>
+      </c>
+      <c r="F179">
+        <v>9</v>
+      </c>
+      <c r="G179">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Sessao 8</t>
+        </is>
+      </c>
+      <c r="E180">
+        <v>10</v>
+      </c>
+      <c r="F180">
+        <v>6</v>
+      </c>
+      <c r="G180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Sessao 9</t>
+        </is>
+      </c>
+      <c r="E181">
+        <v>12</v>
+      </c>
+      <c r="F181">
+        <v>3</v>
+      </c>
+      <c r="G181">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E182">
+        <v>23</v>
+      </c>
+      <c r="F182">
+        <v>15</v>
+      </c>
+      <c r="G182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E183">
+        <v>23</v>
+      </c>
+      <c r="F183">
+        <v>14</v>
+      </c>
+      <c r="G183">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E184">
+        <v>24</v>
+      </c>
+      <c r="F184">
+        <v>12</v>
+      </c>
+      <c r="G184">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>22</v>
+      </c>
+      <c r="F185">
+        <v>13</v>
+      </c>
+      <c r="G185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>19</v>
+      </c>
+      <c r="F186">
+        <v>11</v>
+      </c>
+      <c r="G186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E187">
+        <v>20</v>
+      </c>
+      <c r="F187">
+        <v>13</v>
+      </c>
+      <c r="G187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Sessao 7</t>
+        </is>
+      </c>
+      <c r="E188">
+        <v>21</v>
+      </c>
+      <c r="F188">
+        <v>14</v>
+      </c>
+      <c r="G188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Sessao 8</t>
+        </is>
+      </c>
+      <c r="E189">
+        <v>21</v>
+      </c>
+      <c r="F189">
+        <v>11</v>
+      </c>
+      <c r="G189">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Sessao 9</t>
+        </is>
+      </c>
+      <c r="E190">
+        <v>22</v>
+      </c>
+      <c r="F190">
+        <v>13</v>
+      </c>
+      <c r="G190">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E191">
+        <v>25</v>
+      </c>
+      <c r="F191">
+        <v>9</v>
+      </c>
+      <c r="G191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E192">
+        <v>27</v>
+      </c>
+      <c r="F192">
+        <v>11</v>
+      </c>
+      <c r="G192">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E193">
+        <v>14</v>
+      </c>
+      <c r="F193">
+        <v>8</v>
+      </c>
+      <c r="G193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E194">
+        <v>21</v>
+      </c>
+      <c r="F194">
+        <v>8</v>
+      </c>
+      <c r="G194">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E195">
+        <v>20</v>
+      </c>
+      <c r="F195">
+        <v>6</v>
+      </c>
+      <c r="G195">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E196">
+        <v>22</v>
+      </c>
+      <c r="F196">
+        <v>7</v>
+      </c>
+      <c r="G196">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Sessao 7</t>
+        </is>
+      </c>
+      <c r="E197">
+        <v>22</v>
+      </c>
+      <c r="F197">
+        <v>9</v>
+      </c>
+      <c r="G197">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Sessao 8</t>
+        </is>
+      </c>
+      <c r="E198">
+        <v>20</v>
+      </c>
+      <c r="F198">
+        <v>8</v>
+      </c>
+      <c r="G198">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>MARROCANE</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Sessao 9</t>
+        </is>
+      </c>
+      <c r="E199">
+        <v>21</v>
+      </c>
+      <c r="F199">
+        <v>8</v>
+      </c>
+      <c r="G199">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E200">
+        <v>33</v>
+      </c>
+      <c r="F200">
+        <v>15</v>
+      </c>
+      <c r="G200">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E201">
+        <v>33</v>
+      </c>
+      <c r="F201">
+        <v>16</v>
+      </c>
+      <c r="G201">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E202">
+        <v>37</v>
+      </c>
+      <c r="F202">
+        <v>20</v>
+      </c>
+      <c r="G202">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E203">
+        <v>37</v>
+      </c>
+      <c r="F203">
+        <v>18</v>
+      </c>
+      <c r="G203">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E204">
+        <v>39</v>
+      </c>
+      <c r="F204">
+        <v>17</v>
+      </c>
+      <c r="G204">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E205">
+        <v>35</v>
+      </c>
+      <c r="F205">
+        <v>14</v>
+      </c>
+      <c r="G205">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Sessao 7</t>
+        </is>
+      </c>
+      <c r="E206">
+        <v>42</v>
+      </c>
+      <c r="F206">
+        <v>19</v>
+      </c>
+      <c r="G206">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Sessao 8</t>
+        </is>
+      </c>
+      <c r="E207">
+        <v>42</v>
+      </c>
+      <c r="F207">
+        <v>22</v>
+      </c>
+      <c r="G207">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Sessao 9</t>
+        </is>
+      </c>
+      <c r="E208">
+        <v>36</v>
+      </c>
+      <c r="F208">
+        <v>14</v>
+      </c>
+      <c r="G208">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E209">
+        <v>25</v>
+      </c>
+      <c r="F209">
+        <v>13</v>
+      </c>
+      <c r="G209">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E210">
+        <v>24</v>
+      </c>
+      <c r="F210">
+        <v>15</v>
+      </c>
+      <c r="G210">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E211">
+        <v>30</v>
+      </c>
+      <c r="F211">
+        <v>16</v>
+      </c>
+      <c r="G211">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E212">
+        <v>24</v>
+      </c>
+      <c r="F212">
+        <v>11</v>
+      </c>
+      <c r="G212">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E213">
+        <v>28</v>
+      </c>
+      <c r="F213">
+        <v>15</v>
+      </c>
+      <c r="G213">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E214">
+        <v>21</v>
+      </c>
+      <c r="F214">
+        <v>9</v>
+      </c>
+      <c r="G214">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Sessao 7</t>
+        </is>
+      </c>
+      <c r="E215">
+        <v>28</v>
+      </c>
+      <c r="F215">
+        <v>16</v>
+      </c>
+      <c r="G215">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Sessao 8</t>
+        </is>
+      </c>
+      <c r="E216">
+        <v>30</v>
+      </c>
+      <c r="F216">
+        <v>15</v>
+      </c>
+      <c r="G216">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>NACHILAPA</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Sessao 9</t>
+        </is>
+      </c>
+      <c r="E217">
+        <v>26</v>
+      </c>
+      <c r="F217">
+        <v>17</v>
+      </c>
+      <c r="G217">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
           <t>NANHOTO</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E218">
+        <v>7</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E219">
+        <v>6</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E220">
+        <v>6</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E221">
+        <v>7</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E222">
+        <v>8</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
         <is>
           <t>Sessao 6</t>
         </is>
       </c>
-      <c r="E146">
+      <c r="E223">
+        <v>6</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Sessao 7</t>
+        </is>
+      </c>
+      <c r="E224">
+        <v>6</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Sessao 8</t>
+        </is>
+      </c>
+      <c r="E225">
+        <v>4</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Sessao 9</t>
+        </is>
+      </c>
+      <c r="E226">
+        <v>6</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Sessao 1</t>
+        </is>
+      </c>
+      <c r="E227">
+        <v>14</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+      <c r="G227">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Sessao 2</t>
+        </is>
+      </c>
+      <c r="E228">
+        <v>16</v>
+      </c>
+      <c r="F228">
+        <v>4</v>
+      </c>
+      <c r="G228">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Sessao 3</t>
+        </is>
+      </c>
+      <c r="E229">
+        <v>15</v>
+      </c>
+      <c r="F229">
+        <v>4</v>
+      </c>
+      <c r="G229">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Sessao 4</t>
+        </is>
+      </c>
+      <c r="E230">
+        <v>12</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+      <c r="G230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Sessao 5</t>
+        </is>
+      </c>
+      <c r="E231">
+        <v>16</v>
+      </c>
+      <c r="F231">
+        <v>4</v>
+      </c>
+      <c r="G231">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Sessao 6</t>
+        </is>
+      </c>
+      <c r="E232">
+        <v>13</v>
+      </c>
+      <c r="F232">
+        <v>3</v>
+      </c>
+      <c r="G232">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Sessao 7</t>
+        </is>
+      </c>
+      <c r="E233">
+        <v>15</v>
+      </c>
+      <c r="F233">
+        <v>3</v>
+      </c>
+      <c r="G233">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Sessao 8</t>
+        </is>
+      </c>
+      <c r="E234">
+        <v>19</v>
+      </c>
+      <c r="F234">
+        <v>7</v>
+      </c>
+      <c r="G234">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>RIBAUE</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>NANHOTO</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Sessao 9</t>
+        </is>
+      </c>
+      <c r="E235">
         <v>18</v>
       </c>
-      <c r="F146">
-        <v>3</v>
-      </c>
-      <c r="G146">
-        <v>15</v>
+      <c r="F235">
+        <v>4</v>
+      </c>
+      <c r="G235">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Data/indiv_PI.xlsx
+++ b/Data/indiv_PI.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -447,13 +447,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="E6">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>19</v>
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="E7">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="E8">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="E9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -667,7 +667,7 @@
         <v>49</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10">
         <v>21</v>
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>13</v>
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -819,13 +819,13 @@
         </is>
       </c>
       <c r="E15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="E17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="E18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G18">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>20</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="E21">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -1039,10 +1039,10 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="E25">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G25">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="E26">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26">
         <v>9</v>
       </c>
       <c r="G26">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="E27">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <v>11</v>
       </c>
       <c r="G27">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F28">
         <v>11</v>
       </c>
       <c r="G28">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="E29">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="E30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30">
         <v>16</v>
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="E31">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G31">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1349,10 +1349,10 @@
         <v>21</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="E33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1408,13 +1408,13 @@
         </is>
       </c>
       <c r="E34">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G35">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="E36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G36">
         <v>15</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="E37">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F38">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G38">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="E39">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F39">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G39">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1594,13 +1594,13 @@
         </is>
       </c>
       <c r="E40">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G40">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -1656,13 +1656,13 @@
         </is>
       </c>
       <c r="E42">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F42">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="E43">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G43">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1718,13 +1718,13 @@
         </is>
       </c>
       <c r="E44">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F44">
+        <v>19</v>
+      </c>
+      <c r="G44">
         <v>16</v>
-      </c>
-      <c r="G44">
-        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1749,13 +1749,13 @@
         </is>
       </c>
       <c r="E45">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F45">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -1780,13 +1780,13 @@
         </is>
       </c>
       <c r="E46">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F46">
+        <v>19</v>
+      </c>
+      <c r="G46">
         <v>18</v>
-      </c>
-      <c r="G46">
-        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="E47">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="E48">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G48">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -1873,13 +1873,13 @@
         </is>
       </c>
       <c r="E49">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F49">
         <v>9</v>
       </c>
       <c r="G49">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1904,13 +1904,13 @@
         </is>
       </c>
       <c r="E50">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F50">
         <v>8</v>
       </c>
       <c r="G50">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="E51">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="E52">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G52">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -1997,13 +1997,13 @@
         </is>
       </c>
       <c r="E53">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F53">
         <v>7</v>
       </c>
       <c r="G53">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -2028,13 +2028,13 @@
         </is>
       </c>
       <c r="E54">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G54">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="E55">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G55">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -2093,10 +2093,10 @@
         <v>38</v>
       </c>
       <c r="F56">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G56">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -2121,13 +2121,13 @@
         </is>
       </c>
       <c r="E57">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F57">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G57">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="E58">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="E59">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F59">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G59">
         <v>22</v>
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="E60">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F60">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G60">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="E61">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G61">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="E62">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F62">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G62">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
@@ -2307,13 +2307,13 @@
         </is>
       </c>
       <c r="E63">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G63">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -2338,13 +2338,13 @@
         </is>
       </c>
       <c r="E64">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F64">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G64">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -2369,13 +2369,13 @@
         </is>
       </c>
       <c r="E65">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F65">
         <v>4</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -2400,13 +2400,13 @@
         </is>
       </c>
       <c r="E66">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
         <v>9</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="G66">
-        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -2434,10 +2434,10 @@
         <v>11</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F68">
         <v>2</v>
       </c>
       <c r="G68">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2493,13 +2493,13 @@
         </is>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -2524,13 +2524,13 @@
         </is>
       </c>
       <c r="E70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -2586,13 +2586,13 @@
         </is>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -2648,13 +2648,13 @@
         </is>
       </c>
       <c r="E74">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F74">
         <v>18</v>
       </c>
       <c r="G74">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -2682,10 +2682,10 @@
         <v>39</v>
       </c>
       <c r="F75">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G75">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -2713,10 +2713,10 @@
         <v>33</v>
       </c>
       <c r="F76">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G76">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -2741,13 +2741,13 @@
         </is>
       </c>
       <c r="E77">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F77">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G77">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="E78">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F78">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G78">
         <v>13</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="E79">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="E80">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G80">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -2865,13 +2865,13 @@
         </is>
       </c>
       <c r="E81">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F81">
         <v>19</v>
       </c>
       <c r="G81">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -2899,10 +2899,10 @@
         <v>32</v>
       </c>
       <c r="F82">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G82">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
@@ -2927,13 +2927,13 @@
         </is>
       </c>
       <c r="E83">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G83">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -2958,13 +2958,13 @@
         </is>
       </c>
       <c r="E84">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G84">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -2989,13 +2989,13 @@
         </is>
       </c>
       <c r="E85">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G85">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="E86">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G86">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="E87">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F87">
         <v>5</v>
       </c>
       <c r="G87">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -3082,13 +3082,13 @@
         </is>
       </c>
       <c r="E88">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G88">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="E89">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G89">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -3144,13 +3144,13 @@
         </is>
       </c>
       <c r="E90">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F90">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G90">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E91">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F91">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G91">
         <v>16</v>
@@ -3206,13 +3206,13 @@
         </is>
       </c>
       <c r="E92">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F92">
         <v>7</v>
       </c>
       <c r="G92">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
@@ -3240,10 +3240,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -3268,13 +3268,13 @@
         </is>
       </c>
       <c r="E94">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G94">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -3299,10 +3299,10 @@
         </is>
       </c>
       <c r="E95">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G95">
         <v>11</v>
@@ -3361,13 +3361,13 @@
         </is>
       </c>
       <c r="E97">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -3392,13 +3392,13 @@
         </is>
       </c>
       <c r="E98">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G98">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="E99">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F99">
         <v>6</v>
       </c>
       <c r="G99">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="E100">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F100">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G100">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="E101">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G101">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -3516,13 +3516,13 @@
         </is>
       </c>
       <c r="E102">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -3547,13 +3547,13 @@
         </is>
       </c>
       <c r="E103">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G103">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
@@ -3578,13 +3578,13 @@
         </is>
       </c>
       <c r="E104">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G104">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -3609,13 +3609,13 @@
         </is>
       </c>
       <c r="E105">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
@@ -3640,13 +3640,13 @@
         </is>
       </c>
       <c r="E106">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G106">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
@@ -3671,13 +3671,13 @@
         </is>
       </c>
       <c r="E107">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G107">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -3705,10 +3705,10 @@
         <v>19</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="E109">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F109">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G109">
         <v>9</v>
@@ -3764,13 +3764,13 @@
         </is>
       </c>
       <c r="E110">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
         <v>13</v>
-      </c>
-      <c r="G110">
-        <v>11</v>
       </c>
     </row>
     <row r="111">
@@ -3795,13 +3795,13 @@
         </is>
       </c>
       <c r="E111">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F111">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="E112">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F112">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G112">
         <v>10</v>
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="E113">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F113">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G113">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -3888,13 +3888,13 @@
         </is>
       </c>
       <c r="E114">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F114">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G114">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="E115">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G115">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
@@ -3950,13 +3950,13 @@
         </is>
       </c>
       <c r="E116">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G116">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
@@ -3981,13 +3981,13 @@
         </is>
       </c>
       <c r="E117">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F117">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G117">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
@@ -4012,13 +4012,13 @@
         </is>
       </c>
       <c r="E118">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G118">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -4043,13 +4043,13 @@
         </is>
       </c>
       <c r="E119">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F119">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G119">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="E120">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F120">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G120">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="E121">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F121">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -4136,13 +4136,13 @@
         </is>
       </c>
       <c r="E122">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F122">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G122">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="E123">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F123">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G123">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="E124">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F124">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G124">
         <v>6</v>
@@ -4229,10 +4229,10 @@
         </is>
       </c>
       <c r="E125">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F125">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -4260,13 +4260,13 @@
         </is>
       </c>
       <c r="E126">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F126">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G126">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
@@ -4291,13 +4291,13 @@
         </is>
       </c>
       <c r="E127">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F127">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
@@ -4322,10 +4322,10 @@
         </is>
       </c>
       <c r="E128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -4353,10 +4353,10 @@
         </is>
       </c>
       <c r="E129">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -4418,10 +4418,10 @@
         <v>7</v>
       </c>
       <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="G131">
         <v>4</v>
-      </c>
-      <c r="G131">
-        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -4446,13 +4446,13 @@
         </is>
       </c>
       <c r="E132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F132">
+        <v>4</v>
+      </c>
+      <c r="G132">
         <v>2</v>
-      </c>
-      <c r="G132">
-        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -4477,13 +4477,13 @@
         </is>
       </c>
       <c r="E133">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F133">
+        <v>5</v>
+      </c>
+      <c r="G133">
         <v>4</v>
-      </c>
-      <c r="G133">
-        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -4508,10 +4508,10 @@
         </is>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G134">
         <v>4</v>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F135">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -4570,13 +4570,13 @@
         </is>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -4601,10 +4601,10 @@
         </is>
       </c>
       <c r="E137">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F137">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G137">
         <v>4</v>
@@ -4632,10 +4632,10 @@
         </is>
       </c>
       <c r="E138">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F138">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G138">
         <v>4</v>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="E139">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F139">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G139">
         <v>5</v>
@@ -4694,10 +4694,10 @@
         </is>
       </c>
       <c r="E140">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F140">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="E141">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F141">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G141">
         <v>4</v>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="E142">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F142">
         <v>10</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
@@ -4787,10 +4787,10 @@
         </is>
       </c>
       <c r="E143">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F143">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -4818,13 +4818,13 @@
         </is>
       </c>
       <c r="E144">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F144">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G144">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="E145">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F145">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G145">
         <v>4</v>
@@ -4880,13 +4880,13 @@
         </is>
       </c>
       <c r="E146">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F146">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G146">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
@@ -4911,13 +4911,13 @@
         </is>
       </c>
       <c r="E147">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F147">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G147">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148">
@@ -4942,13 +4942,13 @@
         </is>
       </c>
       <c r="E148">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F148">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G148">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149">
@@ -4973,13 +4973,13 @@
         </is>
       </c>
       <c r="E149">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F149">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G149">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="E150">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F150">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G150">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151">
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="E151">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F151">
         <v>15</v>
       </c>
       <c r="G151">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
@@ -5066,13 +5066,13 @@
         </is>
       </c>
       <c r="E152">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F152">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G152">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="E153">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F153">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G153">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154">
@@ -5159,10 +5159,10 @@
         </is>
       </c>
       <c r="E155">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F155">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G155">
         <v>20</v>
@@ -5190,13 +5190,13 @@
         </is>
       </c>
       <c r="E156">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F156">
         <v>10</v>
       </c>
       <c r="G156">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157">
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="E157">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F157">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G157">
         <v>16</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="E158">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F158">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G158">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
@@ -5283,13 +5283,13 @@
         </is>
       </c>
       <c r="E159">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F159">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G159">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160">
@@ -5314,13 +5314,13 @@
         </is>
       </c>
       <c r="E160">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F160">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G160">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
@@ -5345,10 +5345,10 @@
         </is>
       </c>
       <c r="E161">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F161">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G161">
         <v>20</v>
@@ -5376,13 +5376,13 @@
         </is>
       </c>
       <c r="E162">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F162">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G162">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
@@ -5407,13 +5407,13 @@
         </is>
       </c>
       <c r="E163">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F163">
         <v>10</v>
       </c>
       <c r="G163">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164">
@@ -5438,13 +5438,13 @@
         </is>
       </c>
       <c r="E164">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F164">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G164">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165">
@@ -5469,13 +5469,13 @@
         </is>
       </c>
       <c r="E165">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F165">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G165">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="E166">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F166">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G166">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E167">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F167">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G167">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="E168">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F168">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G168">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
@@ -5593,10 +5593,10 @@
         </is>
       </c>
       <c r="E169">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F169">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G169">
         <v>11</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E170">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F170">
         <v>7</v>
       </c>
       <c r="G170">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
@@ -5655,13 +5655,13 @@
         </is>
       </c>
       <c r="E171">
+        <v>23</v>
+      </c>
+      <c r="F171">
+        <v>8</v>
+      </c>
+      <c r="G171">
         <v>15</v>
-      </c>
-      <c r="F171">
-        <v>7</v>
-      </c>
-      <c r="G171">
-        <v>8</v>
       </c>
     </row>
     <row r="172">
@@ -5686,13 +5686,13 @@
         </is>
       </c>
       <c r="E172">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F172">
         <v>9</v>
       </c>
       <c r="G172">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
@@ -5717,13 +5717,13 @@
         </is>
       </c>
       <c r="E173">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F173">
         <v>7</v>
       </c>
       <c r="G173">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174">
@@ -5748,13 +5748,13 @@
         </is>
       </c>
       <c r="E174">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F174">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G174">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -5813,10 +5813,10 @@
         <v>19</v>
       </c>
       <c r="F176">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G176">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177">
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="E177">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F177">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G177">
         <v>10</v>
@@ -5872,13 +5872,13 @@
         </is>
       </c>
       <c r="E178">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F178">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G178">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
@@ -5903,13 +5903,13 @@
         </is>
       </c>
       <c r="E179">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F179">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G179">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
@@ -5934,13 +5934,13 @@
         </is>
       </c>
       <c r="E180">
+        <v>22</v>
+      </c>
+      <c r="F180">
         <v>10</v>
       </c>
-      <c r="F180">
-        <v>6</v>
-      </c>
       <c r="G180">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="E181">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F181">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G181">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182">
@@ -5996,13 +5996,13 @@
         </is>
       </c>
       <c r="E182">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F182">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G182">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183">
@@ -6030,10 +6030,10 @@
         <v>23</v>
       </c>
       <c r="F183">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G183">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
@@ -6058,13 +6058,13 @@
         </is>
       </c>
       <c r="E184">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F184">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G184">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
@@ -6089,13 +6089,13 @@
         </is>
       </c>
       <c r="E185">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F185">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G185">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
@@ -6120,13 +6120,13 @@
         </is>
       </c>
       <c r="E186">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F186">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G186">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="E187">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F187">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G187">
         <v>7</v>
@@ -6182,13 +6182,13 @@
         </is>
       </c>
       <c r="E188">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F188">
         <v>14</v>
       </c>
       <c r="G188">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
@@ -6213,13 +6213,13 @@
         </is>
       </c>
       <c r="E189">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F189">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G189">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190">
@@ -6244,13 +6244,13 @@
         </is>
       </c>
       <c r="E190">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F190">
         <v>13</v>
       </c>
       <c r="G190">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
@@ -6275,13 +6275,13 @@
         </is>
       </c>
       <c r="E191">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F191">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G191">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="E192">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F192">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G192">
         <v>16</v>
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="E193">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F193">
         <v>8</v>
       </c>
       <c r="G193">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194">
@@ -6368,13 +6368,13 @@
         </is>
       </c>
       <c r="E194">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G194">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195">
@@ -6399,10 +6399,10 @@
         </is>
       </c>
       <c r="E195">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F195">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G195">
         <v>14</v>
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E196">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F196">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G196">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -6461,13 +6461,13 @@
         </is>
       </c>
       <c r="E197">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F197">
         <v>9</v>
       </c>
       <c r="G197">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="E198">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F198">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G198">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199">
@@ -6523,10 +6523,10 @@
         </is>
       </c>
       <c r="E199">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F199">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G199">
         <v>13</v>
@@ -6554,13 +6554,13 @@
         </is>
       </c>
       <c r="E200">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F200">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G200">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201">
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="E201">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F201">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G201">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202">
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="E202">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F202">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G202">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203">
@@ -6647,10 +6647,10 @@
         </is>
       </c>
       <c r="E203">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F203">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G203">
         <v>19</v>
@@ -6678,13 +6678,13 @@
         </is>
       </c>
       <c r="E204">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F204">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G204">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205">
@@ -6709,10 +6709,10 @@
         </is>
       </c>
       <c r="E205">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F205">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G205">
         <v>21</v>
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="E206">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F206">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G206">
         <v>23</v>
@@ -6771,13 +6771,13 @@
         </is>
       </c>
       <c r="E207">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F207">
         <v>22</v>
       </c>
       <c r="G207">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208">
@@ -6802,13 +6802,13 @@
         </is>
       </c>
       <c r="E208">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F208">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G208">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209">
@@ -6833,13 +6833,13 @@
         </is>
       </c>
       <c r="E209">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F209">
+        <v>16</v>
+      </c>
+      <c r="G209">
         <v>13</v>
-      </c>
-      <c r="G209">
-        <v>12</v>
       </c>
     </row>
     <row r="210">
@@ -6864,13 +6864,13 @@
         </is>
       </c>
       <c r="E210">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F210">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G210">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211">
@@ -6895,13 +6895,13 @@
         </is>
       </c>
       <c r="E211">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F211">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G211">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
@@ -6926,13 +6926,13 @@
         </is>
       </c>
       <c r="E212">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F212">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G212">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="E213">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F213">
         <v>15</v>
       </c>
       <c r="G213">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214">
@@ -6988,13 +6988,13 @@
         </is>
       </c>
       <c r="E214">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F214">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G214">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
@@ -7019,13 +7019,13 @@
         </is>
       </c>
       <c r="E215">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F215">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G215">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216">
@@ -7050,13 +7050,13 @@
         </is>
       </c>
       <c r="E216">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F216">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G216">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217">
@@ -7081,13 +7081,13 @@
         </is>
       </c>
       <c r="E217">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F217">
         <v>17</v>
       </c>
       <c r="G217">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218">
@@ -7112,13 +7112,13 @@
         </is>
       </c>
       <c r="E218">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F218">
         <v>1</v>
       </c>
       <c r="G218">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219">
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="E219">
+        <v>7</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
         <v>6</v>
-      </c>
-      <c r="F219">
-        <v>2</v>
-      </c>
-      <c r="G219">
-        <v>4</v>
       </c>
     </row>
     <row r="220">
@@ -7174,13 +7174,13 @@
         </is>
       </c>
       <c r="E220">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
@@ -7205,13 +7205,13 @@
         </is>
       </c>
       <c r="E221">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
@@ -7236,10 +7236,10 @@
         </is>
       </c>
       <c r="E222">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G222">
         <v>7</v>
@@ -7267,13 +7267,13 @@
         </is>
       </c>
       <c r="E223">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F223">
         <v>1</v>
       </c>
       <c r="G223">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224">
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="E224">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="E225">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226">
@@ -7360,10 +7360,10 @@
         </is>
       </c>
       <c r="E226">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
         <v>6</v>
@@ -7391,13 +7391,13 @@
         </is>
       </c>
       <c r="E227">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G227">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E228">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G228">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229">
@@ -7453,13 +7453,13 @@
         </is>
       </c>
       <c r="E229">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F229">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G229">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230">
@@ -7484,13 +7484,13 @@
         </is>
       </c>
       <c r="E230">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G230">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231">
@@ -7518,10 +7518,10 @@
         <v>16</v>
       </c>
       <c r="F231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G231">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232">
@@ -7546,13 +7546,13 @@
         </is>
       </c>
       <c r="E232">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F232">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G232">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
@@ -7577,13 +7577,13 @@
         </is>
       </c>
       <c r="E233">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F233">
         <v>3</v>
       </c>
       <c r="G233">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234">
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="E234">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F234">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G234">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">
@@ -7639,13 +7639,13 @@
         </is>
       </c>
       <c r="E235">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F235">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G235">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data/indiv_PI.xlsx
+++ b/Data/indiv_PI.xlsx
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>totais</t>
+          <t>Totais</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data/indiv_PI.xlsx
+++ b/Data/indiv_PI.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -447,13 +447,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -608,7 +608,7 @@
         <v>23</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="E9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="E10">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -819,13 +819,13 @@
         </is>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -887,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="E18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="E19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
         <v>14</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="E21">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E22">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F22">
         <v>13</v>
       </c>
       <c r="G22">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="E23">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="E25">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="E26">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="E27">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -1222,10 +1222,10 @@
         </is>
       </c>
       <c r="E28">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G28">
         <v>22</v>
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="E29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>17</v>
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="E30">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="E31">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>17</v>
@@ -1346,13 +1346,13 @@
         </is>
       </c>
       <c r="E32">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -1377,10 +1377,10 @@
         </is>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -1411,10 +1411,10 @@
         <v>23</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="E35">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G35">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="E36">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G36">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="E37">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="E38">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F38">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G39">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -1594,13 +1594,13 @@
         </is>
       </c>
       <c r="E40">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F40">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="E41">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F41">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G41">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -1656,13 +1656,13 @@
         </is>
       </c>
       <c r="E42">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G42">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="E43">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G43">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -1721,10 +1721,10 @@
         <v>35</v>
       </c>
       <c r="F44">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G44">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -1749,13 +1749,13 @@
         </is>
       </c>
       <c r="E45">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F45">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G45">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -1780,13 +1780,13 @@
         </is>
       </c>
       <c r="E46">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F46">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="E47">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G47">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="E48">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F48">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -1873,13 +1873,13 @@
         </is>
       </c>
       <c r="E49">
+        <v>27</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
         <v>19</v>
-      </c>
-      <c r="F49">
-        <v>9</v>
-      </c>
-      <c r="G49">
-        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1904,13 +1904,13 @@
         </is>
       </c>
       <c r="E50">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F50">
         <v>8</v>
       </c>
       <c r="G50">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="E51">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G51">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G52">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -1997,13 +1997,13 @@
         </is>
       </c>
       <c r="E53">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="E54">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G54">
         <v>18</v>
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="E55">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G55">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -2090,13 +2090,13 @@
         </is>
       </c>
       <c r="E56">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F56">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G56">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
@@ -2121,13 +2121,13 @@
         </is>
       </c>
       <c r="E57">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F57">
         <v>16</v>
       </c>
       <c r="G57">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="E58">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F58">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
@@ -2183,13 +2183,13 @@
         </is>
       </c>
       <c r="E59">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G59">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
@@ -2214,10 +2214,10 @@
         </is>
       </c>
       <c r="E60">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F60">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G60">
         <v>25</v>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="E61">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F61">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G61">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="E62">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F62">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G62">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E63">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F63">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G63">
         <v>23</v>
@@ -2338,13 +2338,13 @@
         </is>
       </c>
       <c r="E64">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F64">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -2369,13 +2369,13 @@
         </is>
       </c>
       <c r="E65">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -2400,13 +2400,13 @@
         </is>
       </c>
       <c r="E66">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -2431,13 +2431,13 @@
         </is>
       </c>
       <c r="E67">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F67">
         <v>4</v>
       </c>
       <c r="G67">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -2496,10 +2496,10 @@
         <v>12</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -2524,13 +2524,13 @@
         </is>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="E71">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G71">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -2586,13 +2586,13 @@
         </is>
       </c>
       <c r="E72">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G72">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="E73">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
       <c r="G73">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -2648,13 +2648,13 @@
         </is>
       </c>
       <c r="E74">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F74">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G74">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -2679,13 +2679,13 @@
         </is>
       </c>
       <c r="E75">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F75">
         <v>23</v>
       </c>
       <c r="G75">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="E76">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F76">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G76">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -2741,13 +2741,13 @@
         </is>
       </c>
       <c r="E77">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F77">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G77">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -2772,13 +2772,13 @@
         </is>
       </c>
       <c r="E78">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F78">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G78">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="E79">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G79">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="E80">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F80">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G80">
         <v>16</v>
@@ -2865,13 +2865,13 @@
         </is>
       </c>
       <c r="E81">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F81">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G81">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -2896,13 +2896,13 @@
         </is>
       </c>
       <c r="E82">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F82">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G82">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="E83">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G83">
         <v>19</v>
@@ -2958,13 +2958,13 @@
         </is>
       </c>
       <c r="E84">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G84">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -2989,13 +2989,13 @@
         </is>
       </c>
       <c r="E85">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G85">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86">
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="E86">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F86">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G86">
         <v>18</v>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="E87">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <v>18</v>
@@ -3082,13 +3082,13 @@
         </is>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F88">
         <v>6</v>
       </c>
       <c r="G88">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="E89">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G89">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -3144,13 +3144,13 @@
         </is>
       </c>
       <c r="E90">
+        <v>25</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90">
         <v>18</v>
-      </c>
-      <c r="F90">
-        <v>5</v>
-      </c>
-      <c r="G90">
-        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -3175,13 +3175,13 @@
         </is>
       </c>
       <c r="E91">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G91">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -3206,13 +3206,13 @@
         </is>
       </c>
       <c r="E92">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G92">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="E93">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F93">
         <v>9</v>
       </c>
       <c r="G93">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -3271,10 +3271,10 @@
         <v>23</v>
       </c>
       <c r="F94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G94">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -3299,13 +3299,13 @@
         </is>
       </c>
       <c r="E95">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G95">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -3330,13 +3330,13 @@
         </is>
       </c>
       <c r="E96">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F96">
         <v>8</v>
       </c>
       <c r="G96">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -3361,13 +3361,13 @@
         </is>
       </c>
       <c r="E97">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G97">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -3392,13 +3392,13 @@
         </is>
       </c>
       <c r="E98">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G98">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="E99">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="E100">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F100">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="E101">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -3516,13 +3516,13 @@
         </is>
       </c>
       <c r="E102">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G102">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
@@ -3547,13 +3547,13 @@
         </is>
       </c>
       <c r="E103">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G103">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
@@ -3578,13 +3578,13 @@
         </is>
       </c>
       <c r="E104">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F104">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G104">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -3609,13 +3609,13 @@
         </is>
       </c>
       <c r="E105">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G105">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -3640,10 +3640,10 @@
         </is>
       </c>
       <c r="E106">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F106">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G106">
         <v>11</v>
@@ -3677,7 +3677,7 @@
         <v>6</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
@@ -3705,10 +3705,10 @@
         <v>19</v>
       </c>
       <c r="F108">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G108">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="E109">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F109">
         <v>9</v>
       </c>
       <c r="G109">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
@@ -3764,13 +3764,13 @@
         </is>
       </c>
       <c r="E110">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G110">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -3795,13 +3795,13 @@
         </is>
       </c>
       <c r="E111">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F111">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G111">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
@@ -3826,13 +3826,13 @@
         </is>
       </c>
       <c r="E112">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F112">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G112">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="E113">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F113">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G113">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -3888,13 +3888,13 @@
         </is>
       </c>
       <c r="E114">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G114">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="E115">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F115">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G115">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -3950,13 +3950,13 @@
         </is>
       </c>
       <c r="E116">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F116">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G116">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -3981,13 +3981,13 @@
         </is>
       </c>
       <c r="E117">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F117">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G117">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -4012,13 +4012,13 @@
         </is>
       </c>
       <c r="E118">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F118">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G118">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E119">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F119">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G119">
         <v>8</v>
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="E120">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F120">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G120">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="E121">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F121">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G121">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -4139,10 +4139,10 @@
         <v>21</v>
       </c>
       <c r="F122">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G122">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="E123">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F123">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G123">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -4198,13 +4198,13 @@
         </is>
       </c>
       <c r="E124">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F124">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G124">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
@@ -4229,13 +4229,13 @@
         </is>
       </c>
       <c r="E125">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F125">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G125">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
@@ -4260,13 +4260,13 @@
         </is>
       </c>
       <c r="E126">
+        <v>24</v>
+      </c>
+      <c r="F126">
         <v>18</v>
       </c>
-      <c r="F126">
-        <v>13</v>
-      </c>
       <c r="G126">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -4291,13 +4291,13 @@
         </is>
       </c>
       <c r="E127">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F127">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G127">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
@@ -4325,10 +4325,10 @@
         <v>7</v>
       </c>
       <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128">
         <v>4</v>
-      </c>
-      <c r="G128">
-        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -4353,10 +4353,10 @@
         </is>
       </c>
       <c r="E129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -4387,10 +4387,10 @@
         <v>8</v>
       </c>
       <c r="F130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G130">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -4415,13 +4415,13 @@
         </is>
       </c>
       <c r="E131">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F131">
+        <v>5</v>
+      </c>
+      <c r="G131">
         <v>3</v>
-      </c>
-      <c r="G131">
-        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -4446,13 +4446,13 @@
         </is>
       </c>
       <c r="E132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
         <v>4</v>
-      </c>
-      <c r="G132">
-        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -4508,10 +4508,10 @@
         </is>
       </c>
       <c r="E134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F134">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G134">
         <v>4</v>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="E135">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F135">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -4570,13 +4570,13 @@
         </is>
       </c>
       <c r="E136">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F136">
         <v>4</v>
       </c>
       <c r="G136">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -4601,13 +4601,13 @@
         </is>
       </c>
       <c r="E137">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F137">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
@@ -4632,10 +4632,10 @@
         </is>
       </c>
       <c r="E138">
+        <v>16</v>
+      </c>
+      <c r="F138">
         <v>12</v>
-      </c>
-      <c r="F138">
-        <v>8</v>
       </c>
       <c r="G138">
         <v>4</v>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="E139">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F139">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G139">
         <v>5</v>
@@ -4694,10 +4694,10 @@
         </is>
       </c>
       <c r="E140">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F140">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -4725,13 +4725,13 @@
         </is>
       </c>
       <c r="E141">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F141">
         <v>8</v>
       </c>
       <c r="G141">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="E142">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G142">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -4787,13 +4787,13 @@
         </is>
       </c>
       <c r="E143">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F143">
         <v>11</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -4818,13 +4818,13 @@
         </is>
       </c>
       <c r="E144">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F144">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
@@ -4849,13 +4849,13 @@
         </is>
       </c>
       <c r="E145">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F145">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G145">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -4883,10 +4883,10 @@
         <v>36</v>
       </c>
       <c r="F146">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G146">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E147">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F147">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G147">
         <v>25</v>
@@ -4942,13 +4942,13 @@
         </is>
       </c>
       <c r="E148">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G148">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149">
@@ -4973,13 +4973,13 @@
         </is>
       </c>
       <c r="E149">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F149">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G149">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="E150">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F150">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G150">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151">
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="E151">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F151">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G151">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152">
@@ -5066,13 +5066,13 @@
         </is>
       </c>
       <c r="E152">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F152">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G152">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153">
@@ -5097,10 +5097,10 @@
         </is>
       </c>
       <c r="E153">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F153">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G153">
         <v>22</v>
@@ -5128,13 +5128,13 @@
         </is>
       </c>
       <c r="E154">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G154">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155">
@@ -5159,13 +5159,13 @@
         </is>
       </c>
       <c r="E155">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F155">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G155">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
@@ -5190,13 +5190,13 @@
         </is>
       </c>
       <c r="E156">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F156">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G156">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157">
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="E157">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F157">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G157">
         <v>16</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="E158">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F158">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G158">
         <v>19</v>
@@ -5283,13 +5283,13 @@
         </is>
       </c>
       <c r="E159">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F159">
         <v>11</v>
       </c>
       <c r="G159">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
@@ -5314,13 +5314,13 @@
         </is>
       </c>
       <c r="E160">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F160">
         <v>10</v>
       </c>
       <c r="G160">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="E161">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F161">
         <v>13</v>
       </c>
       <c r="G161">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162">
@@ -5376,13 +5376,13 @@
         </is>
       </c>
       <c r="E162">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F162">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G162">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
@@ -5407,13 +5407,13 @@
         </is>
       </c>
       <c r="E163">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F163">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G163">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164">
@@ -5438,13 +5438,13 @@
         </is>
       </c>
       <c r="E164">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F164">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G164">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -5469,13 +5469,13 @@
         </is>
       </c>
       <c r="E165">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F165">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G165">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="E166">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F166">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G166">
         <v>13</v>
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E167">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F167">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G167">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="E168">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F168">
         <v>10</v>
       </c>
       <c r="G168">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
@@ -5593,13 +5593,13 @@
         </is>
       </c>
       <c r="E169">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F169">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G169">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E170">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F170">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G170">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
@@ -5655,13 +5655,13 @@
         </is>
       </c>
       <c r="E171">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F171">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G171">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172">
@@ -5686,13 +5686,13 @@
         </is>
       </c>
       <c r="E172">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F172">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G172">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173">
@@ -5717,13 +5717,13 @@
         </is>
       </c>
       <c r="E173">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F173">
         <v>7</v>
       </c>
       <c r="G173">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
@@ -5779,13 +5779,13 @@
         </is>
       </c>
       <c r="E175">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F175">
         <v>8</v>
       </c>
       <c r="G175">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
@@ -5813,10 +5813,10 @@
         <v>19</v>
       </c>
       <c r="F176">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G176">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
@@ -5841,13 +5841,13 @@
         </is>
       </c>
       <c r="E177">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F177">
         <v>9</v>
       </c>
       <c r="G177">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
@@ -5875,10 +5875,10 @@
         <v>19</v>
       </c>
       <c r="F178">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G178">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
@@ -5903,13 +5903,13 @@
         </is>
       </c>
       <c r="E179">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F179">
         <v>8</v>
       </c>
       <c r="G179">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180">
@@ -5934,10 +5934,10 @@
         </is>
       </c>
       <c r="E180">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F180">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G180">
         <v>12</v>
@@ -5968,10 +5968,10 @@
         <v>18</v>
       </c>
       <c r="F181">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G181">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -5996,13 +5996,13 @@
         </is>
       </c>
       <c r="E182">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F182">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G182">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
@@ -6030,10 +6030,10 @@
         <v>23</v>
       </c>
       <c r="F183">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G183">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
@@ -6058,10 +6058,10 @@
         </is>
       </c>
       <c r="E184">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F184">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G184">
         <v>9</v>
@@ -6089,13 +6089,13 @@
         </is>
       </c>
       <c r="E185">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F185">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G185">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186">
@@ -6120,13 +6120,13 @@
         </is>
       </c>
       <c r="E186">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F186">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G186">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
@@ -6151,13 +6151,13 @@
         </is>
       </c>
       <c r="E187">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F187">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G187">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188">
@@ -6216,10 +6216,10 @@
         <v>25</v>
       </c>
       <c r="F189">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G189">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190">
@@ -6244,13 +6244,13 @@
         </is>
       </c>
       <c r="E190">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F190">
         <v>13</v>
       </c>
       <c r="G190">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191">
@@ -6275,13 +6275,13 @@
         </is>
       </c>
       <c r="E191">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F191">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G191">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192">
@@ -6309,10 +6309,10 @@
         <v>26</v>
       </c>
       <c r="F192">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G192">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="E193">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F193">
         <v>8</v>
       </c>
       <c r="G193">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194">
@@ -6371,10 +6371,10 @@
         <v>24</v>
       </c>
       <c r="F194">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G194">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195">
@@ -6399,13 +6399,13 @@
         </is>
       </c>
       <c r="E195">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F195">
         <v>9</v>
       </c>
       <c r="G195">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E196">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F196">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G196">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197">
@@ -6461,13 +6461,13 @@
         </is>
       </c>
       <c r="E197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F197">
         <v>9</v>
       </c>
       <c r="G197">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="E198">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F198">
         <v>10</v>
       </c>
       <c r="G198">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E199">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F199">
         <v>9</v>
       </c>
       <c r="G199">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
@@ -6554,13 +6554,13 @@
         </is>
       </c>
       <c r="E200">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F200">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G200">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201">
@@ -6588,10 +6588,10 @@
         <v>43</v>
       </c>
       <c r="F201">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G201">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202">
@@ -6619,10 +6619,10 @@
         <v>43</v>
       </c>
       <c r="F202">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G202">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203">
@@ -6647,13 +6647,13 @@
         </is>
       </c>
       <c r="E203">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F203">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G203">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204">
@@ -6678,13 +6678,13 @@
         </is>
       </c>
       <c r="E204">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F204">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G204">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205">
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="E205">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F205">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G205">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206">
@@ -6740,13 +6740,13 @@
         </is>
       </c>
       <c r="E206">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F206">
+        <v>19</v>
+      </c>
+      <c r="G206">
         <v>21</v>
-      </c>
-      <c r="G206">
-        <v>23</v>
       </c>
     </row>
     <row r="207">
@@ -6771,13 +6771,13 @@
         </is>
       </c>
       <c r="E207">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F207">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G207">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208">
@@ -6802,13 +6802,13 @@
         </is>
       </c>
       <c r="E208">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F208">
+        <v>19</v>
+      </c>
+      <c r="G208">
         <v>20</v>
-      </c>
-      <c r="G208">
-        <v>23</v>
       </c>
     </row>
     <row r="209">
@@ -6833,13 +6833,13 @@
         </is>
       </c>
       <c r="E209">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F209">
         <v>16</v>
       </c>
       <c r="G209">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210">
@@ -6867,10 +6867,10 @@
         <v>29</v>
       </c>
       <c r="F210">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G210">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211">
@@ -6898,10 +6898,10 @@
         <v>31</v>
       </c>
       <c r="F211">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G211">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212">
@@ -6926,10 +6926,10 @@
         </is>
       </c>
       <c r="E212">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F212">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G212">
         <v>14</v>
@@ -6957,10 +6957,10 @@
         </is>
       </c>
       <c r="E213">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F213">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G213">
         <v>15</v>
@@ -6988,13 +6988,13 @@
         </is>
       </c>
       <c r="E214">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F214">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G214">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215">
@@ -7019,13 +7019,13 @@
         </is>
       </c>
       <c r="E215">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F215">
+        <v>16</v>
+      </c>
+      <c r="G215">
         <v>12</v>
-      </c>
-      <c r="G215">
-        <v>13</v>
       </c>
     </row>
     <row r="216">
@@ -7050,13 +7050,13 @@
         </is>
       </c>
       <c r="E216">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F216">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G216">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217">
@@ -7081,13 +7081,13 @@
         </is>
       </c>
       <c r="E217">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F217">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G217">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218">
@@ -7112,13 +7112,13 @@
         </is>
       </c>
       <c r="E218">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G218">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219">
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="E219">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F219">
         <v>1</v>
       </c>
       <c r="G219">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
@@ -7177,10 +7177,10 @@
         <v>7</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221">
@@ -7205,13 +7205,13 @@
         </is>
       </c>
       <c r="E221">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
@@ -7236,10 +7236,10 @@
         </is>
       </c>
       <c r="E222">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G222">
         <v>7</v>
@@ -7267,13 +7267,13 @@
         </is>
       </c>
       <c r="E223">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224">
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="E224">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225">
@@ -7329,10 +7329,10 @@
         </is>
       </c>
       <c r="E225">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225">
         <v>6</v>
@@ -7363,10 +7363,10 @@
         <v>7</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
@@ -7391,13 +7391,13 @@
         </is>
       </c>
       <c r="E227">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G227">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
@@ -7422,10 +7422,10 @@
         </is>
       </c>
       <c r="E228">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F228">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G228">
         <v>15</v>
@@ -7453,13 +7453,13 @@
         </is>
       </c>
       <c r="E229">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F229">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G229">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230">
@@ -7484,10 +7484,10 @@
         </is>
       </c>
       <c r="E230">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F230">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G230">
         <v>13</v>
@@ -7515,13 +7515,13 @@
         </is>
       </c>
       <c r="E231">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F231">
         <v>3</v>
       </c>
       <c r="G231">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232">
@@ -7546,13 +7546,13 @@
         </is>
       </c>
       <c r="E232">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F232">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G232">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233">
@@ -7577,13 +7577,13 @@
         </is>
       </c>
       <c r="E233">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F233">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G233">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234">
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="E234">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F234">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G234">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
@@ -7639,13 +7639,13 @@
         </is>
       </c>
       <c r="E235">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F235">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G235">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/indiv_PI.xlsx
+++ b/Data/indiv_PI.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -447,13 +447,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="E8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="E9">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="E10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>14</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>15</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="E13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="E14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="E15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="E16">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <v>13</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="E17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17">
         <v>14</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="E18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>15</v>
       </c>
       <c r="G18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>14</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="E20">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20">
         <v>12</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="E21">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E22">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="E23">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="E24">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="E25">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="E26">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G26">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="E27">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="E29">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>17</v>
@@ -1287,10 +1287,10 @@
         <v>25</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G31">
         <v>17</v>
@@ -1346,13 +1346,13 @@
         </is>
       </c>
       <c r="E32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="E34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="E35">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G35">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="E36">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="E38">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G38">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1594,13 +1594,13 @@
         </is>
       </c>
       <c r="E40">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40">
+        <v>18</v>
+      </c>
+      <c r="G40">
         <v>19</v>
-      </c>
-      <c r="G40">
-        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -1656,13 +1656,13 @@
         </is>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F42">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G42">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="E43">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F43">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -1721,10 +1721,10 @@
         <v>35</v>
       </c>
       <c r="F44">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G44">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1749,13 +1749,13 @@
         </is>
       </c>
       <c r="E45">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F45">
         <v>18</v>
       </c>
       <c r="G45">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="E46">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F46">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G46">
         <v>17</v>
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F47">
         <v>8</v>
       </c>
       <c r="G47">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="E48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G48">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -1873,13 +1873,13 @@
         </is>
       </c>
       <c r="E49">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -1904,13 +1904,13 @@
         </is>
       </c>
       <c r="E50">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G50">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="E51">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>18</v>
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="E52">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F52">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G52">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -1997,13 +1997,13 @@
         </is>
       </c>
       <c r="E53">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F53">
         <v>10</v>
       </c>
       <c r="G53">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -2028,13 +2028,13 @@
         </is>
       </c>
       <c r="E54">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="E55">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F55">
         <v>7</v>
       </c>
       <c r="G55">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -2090,13 +2090,13 @@
         </is>
       </c>
       <c r="E56">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F56">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G56">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -2121,13 +2121,13 @@
         </is>
       </c>
       <c r="E57">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F57">
         <v>16</v>
       </c>
       <c r="G57">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="E60">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F60">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G60">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="E61">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F61">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G61">
         <v>26</v>
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="E62">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F62">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G62">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -2307,13 +2307,13 @@
         </is>
       </c>
       <c r="E63">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F63">
         <v>19</v>
       </c>
       <c r="G63">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
@@ -2338,13 +2338,13 @@
         </is>
       </c>
       <c r="E64">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G64">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
@@ -2369,13 +2369,13 @@
         </is>
       </c>
       <c r="E65">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F65">
         <v>5</v>
       </c>
       <c r="G65">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -2400,13 +2400,13 @@
         </is>
       </c>
       <c r="E66">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F66">
         <v>4</v>
       </c>
       <c r="G66">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="E70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G70">
         <v>8</v>
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="E71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F71">
         <v>5</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G72">
         <v>8</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="E73">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G73">
         <v>9</v>
@@ -2648,13 +2648,13 @@
         </is>
       </c>
       <c r="E74">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F74">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G74">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -2679,13 +2679,13 @@
         </is>
       </c>
       <c r="E75">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F75">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G75">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="E76">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F76">
+        <v>23</v>
+      </c>
+      <c r="G76">
         <v>19</v>
-      </c>
-      <c r="G76">
-        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -2741,13 +2741,13 @@
         </is>
       </c>
       <c r="E77">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F77">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G77">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -2772,13 +2772,13 @@
         </is>
       </c>
       <c r="E78">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F78">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G78">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="E79">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G79">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="E80">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F80">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G80">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="E81">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F81">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G81">
         <v>18</v>
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="E82">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F82">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G82">
         <v>19</v>
@@ -2930,10 +2930,10 @@
         <v>27</v>
       </c>
       <c r="F83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G83">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -2958,13 +2958,13 @@
         </is>
       </c>
       <c r="E84">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G84">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -2989,13 +2989,13 @@
         </is>
       </c>
       <c r="E85">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G85">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="E86">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G86">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="E87">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F87">
         <v>7</v>
       </c>
       <c r="G87">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -3082,10 +3082,10 @@
         </is>
       </c>
       <c r="E88">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G88">
         <v>19</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="E89">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G89">
         <v>20</v>
@@ -3144,13 +3144,13 @@
         </is>
       </c>
       <c r="E90">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G90">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -3175,13 +3175,13 @@
         </is>
       </c>
       <c r="E91">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G91">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -3206,10 +3206,10 @@
         </is>
       </c>
       <c r="E92">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G92">
         <v>17</v>
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="E93">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F93">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G93">
         <v>14</v>
@@ -3268,13 +3268,13 @@
         </is>
       </c>
       <c r="E94">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G94">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -3299,13 +3299,13 @@
         </is>
       </c>
       <c r="E95">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G95">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -3330,10 +3330,10 @@
         </is>
       </c>
       <c r="E96">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G96">
         <v>14</v>
@@ -3361,13 +3361,13 @@
         </is>
       </c>
       <c r="E97">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F97">
         <v>8</v>
       </c>
       <c r="G97">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -3392,13 +3392,13 @@
         </is>
       </c>
       <c r="E98">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F98">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G98">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="E99">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G99">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -3457,10 +3457,10 @@
         <v>20</v>
       </c>
       <c r="F100">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G100">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="E101">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G101">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="E102">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F102">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G102">
         <v>12</v>
@@ -3581,10 +3581,10 @@
         <v>21</v>
       </c>
       <c r="F104">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G104">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -3609,10 +3609,10 @@
         </is>
       </c>
       <c r="E105">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F105">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G105">
         <v>12</v>
@@ -3643,10 +3643,10 @@
         <v>19</v>
       </c>
       <c r="F106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G106">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
@@ -3671,13 +3671,13 @@
         </is>
       </c>
       <c r="E107">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G107">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108">
@@ -3702,13 +3702,13 @@
         </is>
       </c>
       <c r="E108">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F108">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G108">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="E109">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F109">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G109">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -3764,13 +3764,13 @@
         </is>
       </c>
       <c r="E110">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F110">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G110">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
@@ -3795,13 +3795,13 @@
         </is>
       </c>
       <c r="E111">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
@@ -3826,13 +3826,13 @@
         </is>
       </c>
       <c r="E112">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F112">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G112">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="E113">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G113">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
@@ -3888,13 +3888,13 @@
         </is>
       </c>
       <c r="E114">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F114">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G114">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="E115">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F115">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G115">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
@@ -3950,13 +3950,13 @@
         </is>
       </c>
       <c r="E116">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116">
         <v>12</v>
-      </c>
-      <c r="G116">
-        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -3984,10 +3984,10 @@
         <v>26</v>
       </c>
       <c r="F117">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G117">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -4015,10 +4015,10 @@
         <v>27</v>
       </c>
       <c r="F118">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G118">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -4043,13 +4043,13 @@
         </is>
       </c>
       <c r="E119">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F119">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G119">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="E120">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F120">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G120">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
@@ -4105,13 +4105,13 @@
         </is>
       </c>
       <c r="E121">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F121">
         <v>21</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -4136,13 +4136,13 @@
         </is>
       </c>
       <c r="E122">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F122">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G122">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="E123">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F123">
         <v>18</v>
       </c>
       <c r="G123">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
@@ -4198,13 +4198,13 @@
         </is>
       </c>
       <c r="E124">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F124">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G124">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -4229,13 +4229,13 @@
         </is>
       </c>
       <c r="E125">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F125">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G125">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -4260,10 +4260,10 @@
         </is>
       </c>
       <c r="E126">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F126">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G126">
         <v>6</v>
@@ -4291,13 +4291,13 @@
         </is>
       </c>
       <c r="E127">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F127">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G127">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
@@ -4325,10 +4325,10 @@
         <v>7</v>
       </c>
       <c r="F128">
+        <v>4</v>
+      </c>
+      <c r="G128">
         <v>3</v>
-      </c>
-      <c r="G128">
-        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -4353,10 +4353,10 @@
         </is>
       </c>
       <c r="E129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -4387,10 +4387,10 @@
         <v>8</v>
       </c>
       <c r="F130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -4415,10 +4415,10 @@
         </is>
       </c>
       <c r="E131">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F131">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -4446,13 +4446,13 @@
         </is>
       </c>
       <c r="E132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -4508,10 +4508,10 @@
         </is>
       </c>
       <c r="E134">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F134">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G134">
         <v>4</v>
@@ -4539,13 +4539,13 @@
         </is>
       </c>
       <c r="E135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F135">
         <v>5</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -4570,10 +4570,10 @@
         </is>
       </c>
       <c r="E136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -4601,13 +4601,13 @@
         </is>
       </c>
       <c r="E137">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F137">
         <v>12</v>
       </c>
       <c r="G137">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -4632,10 +4632,10 @@
         </is>
       </c>
       <c r="E138">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F138">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G138">
         <v>4</v>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="E139">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F139">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G139">
         <v>5</v>
@@ -4694,13 +4694,13 @@
         </is>
       </c>
       <c r="E140">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F140">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="E141">
+        <v>18</v>
+      </c>
+      <c r="F141">
         <v>13</v>
-      </c>
-      <c r="F141">
-        <v>8</v>
       </c>
       <c r="G141">
         <v>5</v>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="E142">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F142">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -4787,10 +4787,10 @@
         </is>
       </c>
       <c r="E143">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F143">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -4818,13 +4818,13 @@
         </is>
       </c>
       <c r="E144">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F144">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G144">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
@@ -4849,13 +4849,13 @@
         </is>
       </c>
       <c r="E145">
+        <v>16</v>
+      </c>
+      <c r="F145">
         <v>12</v>
       </c>
-      <c r="F145">
-        <v>9</v>
-      </c>
       <c r="G145">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -4880,13 +4880,13 @@
         </is>
       </c>
       <c r="E146">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F146">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G146">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
@@ -4911,13 +4911,13 @@
         </is>
       </c>
       <c r="E147">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F147">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G147">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148">
@@ -4942,13 +4942,13 @@
         </is>
       </c>
       <c r="E148">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F148">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G148">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149">
@@ -4973,13 +4973,13 @@
         </is>
       </c>
       <c r="E149">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F149">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G149">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150">
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="E150">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F150">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G150">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151">
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="E151">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F151">
         <v>14</v>
       </c>
       <c r="G151">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152">
@@ -5066,13 +5066,13 @@
         </is>
       </c>
       <c r="E152">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F152">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G152">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153">
@@ -5128,13 +5128,13 @@
         </is>
       </c>
       <c r="E154">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F154">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G154">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155">
@@ -5159,13 +5159,13 @@
         </is>
       </c>
       <c r="E155">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F155">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G155">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156">
@@ -5190,13 +5190,13 @@
         </is>
       </c>
       <c r="E156">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F156">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G156">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157">
@@ -5221,13 +5221,13 @@
         </is>
       </c>
       <c r="E157">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F157">
         <v>11</v>
       </c>
       <c r="G157">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="E158">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F158">
         <v>10</v>
       </c>
       <c r="G158">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159">
@@ -5283,10 +5283,10 @@
         </is>
       </c>
       <c r="E159">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F159">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G159">
         <v>19</v>
@@ -5314,10 +5314,10 @@
         </is>
       </c>
       <c r="E160">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G160">
         <v>18</v>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="E161">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F161">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G161">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162">
@@ -5376,13 +5376,13 @@
         </is>
       </c>
       <c r="E162">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F162">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G162">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
@@ -5407,13 +5407,13 @@
         </is>
       </c>
       <c r="E163">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F163">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G163">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
@@ -5438,13 +5438,13 @@
         </is>
       </c>
       <c r="E164">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F164">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G164">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
@@ -5469,13 +5469,13 @@
         </is>
       </c>
       <c r="E165">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F165">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G165">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="E166">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F166">
         <v>9</v>
       </c>
       <c r="G166">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E167">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F167">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G167">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="E168">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F168">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G168">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
@@ -5593,10 +5593,10 @@
         </is>
       </c>
       <c r="E169">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F169">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G169">
         <v>12</v>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="E170">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F170">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G170">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171">
@@ -5655,13 +5655,13 @@
         </is>
       </c>
       <c r="E171">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F171">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G171">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -5686,13 +5686,13 @@
         </is>
       </c>
       <c r="E172">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F172">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G172">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
@@ -5717,13 +5717,13 @@
         </is>
       </c>
       <c r="E173">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F173">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G173">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174">
@@ -5779,13 +5779,13 @@
         </is>
       </c>
       <c r="E175">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F175">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G175">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176">
@@ -5810,10 +5810,10 @@
         </is>
       </c>
       <c r="E176">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F176">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G176">
         <v>10</v>
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="E177">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F177">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G177">
         <v>11</v>
@@ -5875,10 +5875,10 @@
         <v>19</v>
       </c>
       <c r="F178">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G178">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -5903,13 +5903,13 @@
         </is>
       </c>
       <c r="E179">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F179">
         <v>8</v>
       </c>
       <c r="G179">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180">
@@ -5937,10 +5937,10 @@
         <v>19</v>
       </c>
       <c r="F180">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G180">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="E181">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F181">
         <v>8</v>
       </c>
       <c r="G181">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182">
@@ -5996,13 +5996,13 @@
         </is>
       </c>
       <c r="E182">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F182">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G182">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183">
@@ -6058,10 +6058,10 @@
         </is>
       </c>
       <c r="E184">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F184">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G184">
         <v>9</v>
@@ -6092,10 +6092,10 @@
         <v>25</v>
       </c>
       <c r="F185">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G185">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
@@ -6123,10 +6123,10 @@
         <v>25</v>
       </c>
       <c r="F186">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G186">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187">
@@ -6151,13 +6151,13 @@
         </is>
       </c>
       <c r="E187">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F187">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G187">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
@@ -6182,13 +6182,13 @@
         </is>
       </c>
       <c r="E188">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F188">
         <v>14</v>
       </c>
       <c r="G188">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189">
@@ -6213,13 +6213,13 @@
         </is>
       </c>
       <c r="E189">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F189">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G189">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
@@ -6244,10 +6244,10 @@
         </is>
       </c>
       <c r="E190">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F190">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G190">
         <v>11</v>
@@ -6275,13 +6275,13 @@
         </is>
       </c>
       <c r="E191">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F191">
         <v>9</v>
       </c>
       <c r="G191">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="E192">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F192">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G192">
         <v>15</v>
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="E193">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F193">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G193">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194">
@@ -6371,10 +6371,10 @@
         <v>24</v>
       </c>
       <c r="F194">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G194">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195">
@@ -6399,13 +6399,13 @@
         </is>
       </c>
       <c r="E195">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F195">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G195">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196">
@@ -6433,10 +6433,10 @@
         <v>24</v>
       </c>
       <c r="F196">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G196">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -6461,13 +6461,13 @@
         </is>
       </c>
       <c r="E197">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F197">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G197">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="E198">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F198">
         <v>10</v>
       </c>
       <c r="G198">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199">
@@ -6523,13 +6523,13 @@
         </is>
       </c>
       <c r="E199">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F199">
         <v>9</v>
       </c>
       <c r="G199">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200">
@@ -6554,13 +6554,13 @@
         </is>
       </c>
       <c r="E200">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F200">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G200">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201">
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="E201">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F201">
+        <v>20</v>
+      </c>
+      <c r="G201">
         <v>21</v>
-      </c>
-      <c r="G201">
-        <v>22</v>
       </c>
     </row>
     <row r="202">
@@ -6619,10 +6619,10 @@
         <v>43</v>
       </c>
       <c r="F202">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G202">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203">
@@ -6647,13 +6647,13 @@
         </is>
       </c>
       <c r="E203">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F203">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G203">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204">
@@ -6678,13 +6678,13 @@
         </is>
       </c>
       <c r="E204">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F204">
+        <v>20</v>
+      </c>
+      <c r="G204">
         <v>21</v>
-      </c>
-      <c r="G204">
-        <v>22</v>
       </c>
     </row>
     <row r="205">
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="E205">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F205">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G205">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206">
@@ -6743,10 +6743,10 @@
         <v>40</v>
       </c>
       <c r="F206">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G206">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207">
@@ -6774,10 +6774,10 @@
         <v>41</v>
       </c>
       <c r="F207">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G207">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208">
@@ -6802,13 +6802,13 @@
         </is>
       </c>
       <c r="E208">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F208">
         <v>19</v>
       </c>
       <c r="G208">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209">
@@ -6833,13 +6833,13 @@
         </is>
       </c>
       <c r="E209">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F209">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G209">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210">
@@ -6864,13 +6864,13 @@
         </is>
       </c>
       <c r="E210">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F210">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G210">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211">
@@ -6895,13 +6895,13 @@
         </is>
       </c>
       <c r="E211">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F211">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G211">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212">
@@ -6926,13 +6926,13 @@
         </is>
       </c>
       <c r="E212">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F212">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G212">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="E213">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F213">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G213">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214">
@@ -6988,13 +6988,13 @@
         </is>
       </c>
       <c r="E214">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F214">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G214">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
@@ -7019,13 +7019,13 @@
         </is>
       </c>
       <c r="E215">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F215">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G215">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
@@ -7050,13 +7050,13 @@
         </is>
       </c>
       <c r="E216">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F216">
         <v>15</v>
       </c>
       <c r="G216">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
@@ -7081,13 +7081,13 @@
         </is>
       </c>
       <c r="E217">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F217">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G217">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218">
@@ -7112,13 +7112,13 @@
         </is>
       </c>
       <c r="E218">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="E219">
+        <v>10</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
         <v>8</v>
-      </c>
-      <c r="F219">
-        <v>1</v>
-      </c>
-      <c r="G219">
-        <v>7</v>
       </c>
     </row>
     <row r="220">
@@ -7205,10 +7205,10 @@
         </is>
       </c>
       <c r="E221">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221">
         <v>7</v>
@@ -7236,10 +7236,10 @@
         </is>
       </c>
       <c r="E222">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G222">
         <v>7</v>
@@ -7267,13 +7267,13 @@
         </is>
       </c>
       <c r="E223">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224">
@@ -7301,10 +7301,10 @@
         <v>9</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G224">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="E225">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
@@ -7360,13 +7360,13 @@
         </is>
       </c>
       <c r="E226">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G226">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227">
@@ -7391,13 +7391,13 @@
         </is>
       </c>
       <c r="E227">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F227">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G227">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="E228">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F228">
         <v>4</v>
       </c>
       <c r="G228">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229">
@@ -7456,10 +7456,10 @@
         <v>17</v>
       </c>
       <c r="F229">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G229">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230">
@@ -7484,10 +7484,10 @@
         </is>
       </c>
       <c r="E230">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F230">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G230">
         <v>13</v>
@@ -7515,13 +7515,13 @@
         </is>
       </c>
       <c r="E231">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G231">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232">
@@ -7546,10 +7546,10 @@
         </is>
       </c>
       <c r="E232">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G232">
         <v>13</v>
@@ -7577,13 +7577,13 @@
         </is>
       </c>
       <c r="E233">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F233">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G233">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234">
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="E234">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F234">
         <v>6</v>
       </c>
       <c r="G234">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235">
@@ -7639,13 +7639,13 @@
         </is>
       </c>
       <c r="E235">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F235">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G235">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
